--- a/Thesis/Fragestellungen.xlsx
+++ b/Thesis/Fragestellungen.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="0" windowWidth="27300" windowHeight="12420"/>
+    <workbookView xWindow="3000" yWindow="0" windowWidth="27300" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Prio</t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t>Kann durch 1x rekursives Suchen Synnonyme von Wörtern gefunden werden?</t>
+  </si>
+  <si>
+    <t>Beinhalten "ähnlich Worte" im allgemeinen Korpus die unterschiedlichen Bedeutungen eines mehrdeutigen Wortes?</t>
   </si>
 </sst>
 </file>
@@ -244,6 +247,15 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -251,15 +263,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -279,7 +282,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A1:B18" totalsRowShown="0" headerRowBorderDxfId="3" tableBorderDxfId="4" totalsRowBorderDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A1:B18" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3" totalsRowBorderDxfId="2">
   <autoFilter ref="A1:B18"/>
   <sortState ref="A2:B18">
     <sortCondition ref="A1:A18"/>
@@ -558,7 +561,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -609,17 +612,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+    <row r="6" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="6"/>
+      <c r="B6" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
         <v>3</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B7" s="7" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>

--- a/Thesis/Fragestellungen.xlsx
+++ b/Thesis/Fragestellungen.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="13500" yWindow="0" windowWidth="27300" windowHeight="12420" activeTab="1"/>
+    <workbookView xWindow="15000" yWindow="0" windowWidth="27300" windowHeight="12420" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Fragestellungen" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="272">
   <si>
     <t>Prio</t>
   </si>
@@ -1205,7 +1205,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1340,9 +1339,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -1402,7 +1399,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="l"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1509,7 +1505,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1625,14 +1620,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -1664,7 +1656,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
@@ -1722,9 +1713,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -1801,7 +1790,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="l"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1908,7 +1896,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2043,9 +2030,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -2105,7 +2090,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="l"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2212,7 +2196,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2347,9 +2330,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -2409,7 +2390,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="l"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2516,7 +2496,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2651,9 +2630,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -2713,7 +2690,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="l"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2820,7 +2796,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2955,9 +2930,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -3017,7 +2990,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="l"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3124,7 +3096,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3259,9 +3230,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -3321,7 +3290,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="l"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3428,7 +3396,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3573,9 +3540,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -3594,9 +3559,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -3615,9 +3578,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -3636,9 +3597,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -3657,9 +3616,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -3678,9 +3635,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -3813,7 +3768,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="l"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3920,7 +3874,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4082,9 +4035,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -4103,9 +4054,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -4124,9 +4073,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -4145,9 +4092,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -4166,9 +4111,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -4187,9 +4130,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -4208,9 +4149,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -4359,7 +4298,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="l"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4466,7 +4404,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4582,9 +4519,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -4622,7 +4557,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
@@ -4680,9 +4614,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -4759,7 +4691,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="l"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11147,7 +11078,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11372,21 +11303,27 @@
       <c r="E5" s="13">
         <v>0</v>
       </c>
-      <c r="F5" s="13"/>
+      <c r="F5" s="13">
+        <v>0</v>
+      </c>
       <c r="G5" s="13">
         <v>0</v>
       </c>
       <c r="H5" s="20">
         <v>0</v>
       </c>
-      <c r="I5" s="20"/>
+      <c r="I5" s="20">
+        <v>0</v>
+      </c>
       <c r="J5" s="20">
         <v>0</v>
       </c>
       <c r="K5" s="13" t="s">
         <v>256</v>
       </c>
-      <c r="L5" s="13"/>
+      <c r="L5" s="13" t="s">
+        <v>252</v>
+      </c>
       <c r="M5" s="13" t="s">
         <v>252</v>
       </c>

--- a/Thesis/Fragestellungen.xlsx
+++ b/Thesis/Fragestellungen.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="15000" yWindow="0" windowWidth="27300" windowHeight="12420" activeTab="1"/>
+    <workbookView xWindow="16500" yWindow="0" windowWidth="27300" windowHeight="12420" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Fragestellungen" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="272">
   <si>
     <t>Prio</t>
   </si>
@@ -1179,62 +1179,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="de-DE"/>
-              <a:t>Synonyme durch Rekursion (Full)</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:pieChart>
@@ -1339,7 +1284,9 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -1366,7 +1313,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>186</c:v>
+                  <c:v>187</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>49</c:v>
@@ -1399,6 +1346,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="l"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1460,7 +1408,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -1479,62 +1427,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="de-DE"/>
-              <a:t>Mehrdeutigkeit (Tech)</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:ofPieChart>
@@ -1620,11 +1513,14 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
+              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -1656,6 +1552,7 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
@@ -1713,7 +1610,9 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -1740,7 +1639,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>171</c:v>
+                  <c:v>172</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>58</c:v>
@@ -1790,6 +1689,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="l"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1870,62 +1770,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="de-DE"/>
-              <a:t>Synonyme durch Rekursion (Tech)</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:pieChart>
@@ -2030,7 +1875,9 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -2057,7 +1904,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>190</c:v>
+                  <c:v>191</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>20</c:v>
@@ -2090,6 +1937,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="l"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2151,7 +1999,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -2170,62 +2018,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="de-DE"/>
-              <a:t>Konkretisierung (Full)</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:pieChart>
@@ -2330,7 +2123,9 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -2357,7 +2152,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>198</c:v>
+                  <c:v>199</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>37</c:v>
@@ -2390,6 +2185,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="l"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2470,62 +2266,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="de-DE"/>
-              <a:t>Konkretisierung (Tech)</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:pieChart>
@@ -2630,7 +2371,9 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -2657,7 +2400,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>145</c:v>
+                  <c:v>146</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>65</c:v>
@@ -2690,6 +2433,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="l"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2770,62 +2514,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="de-DE"/>
-              <a:t>Verallgemeinerung (Full)</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:pieChart>
@@ -2930,7 +2619,9 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -2957,7 +2648,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>101</c:v>
+                  <c:v>102</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>134</c:v>
@@ -2990,6 +2681,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="l"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3070,62 +2762,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="de-DE"/>
-              <a:t>Verallgemeinerung (Tech)</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:pieChart>
@@ -3230,7 +2867,9 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -3257,7 +2896,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>142</c:v>
+                  <c:v>143</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>67</c:v>
@@ -3290,6 +2929,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="l"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3370,62 +3010,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="de-DE"/>
-              <a:t>Beziehungsarten(Full)</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:pieChart>
@@ -3540,7 +3125,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -3559,7 +3146,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -3578,7 +3167,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -3597,7 +3188,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -3616,7 +3209,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -3635,7 +3230,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -3738,7 +3335,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>117</c:v>
+                  <c:v>118</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>36</c:v>
@@ -3768,6 +3365,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="l"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3848,62 +3446,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="de-DE"/>
-              <a:t>Beziehungsarten(Tech)</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:pieChart>
@@ -4035,7 +3578,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -4054,7 +3599,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -4073,7 +3620,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -4092,7 +3641,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -4111,7 +3662,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -4130,7 +3683,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -4149,7 +3704,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -4265,7 +3822,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>125</c:v>
+                  <c:v>126</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>47</c:v>
@@ -4298,6 +3855,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="l"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4378,62 +3936,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="de-DE"/>
-              <a:t>Mehrdeutigkeit (Full)</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:ofPieChart>
@@ -4519,7 +4022,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -4557,6 +4062,7 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
@@ -4614,7 +4120,9 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -4641,7 +4149,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>171</c:v>
+                  <c:v>172</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>58</c:v>
@@ -4691,6 +4199,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="l"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11074,11 +10583,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S251"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="F51" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomRight" activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14265,19 +13774,37 @@
       <c r="A75" s="13" t="s">
         <v>270</v>
       </c>
-      <c r="B75" s="20"/>
+      <c r="B75" s="20">
+        <v>0</v>
+      </c>
       <c r="C75" s="20"/>
-      <c r="D75" s="20"/>
-      <c r="E75" s="13"/>
+      <c r="D75" s="20">
+        <v>0</v>
+      </c>
+      <c r="E75" s="13">
+        <v>0</v>
+      </c>
       <c r="F75" s="13"/>
-      <c r="G75" s="13"/>
-      <c r="H75" s="20"/>
+      <c r="G75" s="13">
+        <v>0</v>
+      </c>
+      <c r="H75" s="20">
+        <v>0</v>
+      </c>
       <c r="I75" s="20"/>
-      <c r="J75" s="20"/>
-      <c r="K75" s="13"/>
+      <c r="J75" s="20">
+        <v>0</v>
+      </c>
+      <c r="K75" s="13" t="s">
+        <v>252</v>
+      </c>
       <c r="L75" s="13"/>
-      <c r="M75" s="13"/>
-      <c r="N75" s="20"/>
+      <c r="M75" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="N75" s="20">
+        <v>0</v>
+      </c>
       <c r="O75" s="20"/>
       <c r="P75" s="20"/>
       <c r="Q75" s="20"/>
@@ -21124,11 +20651,11 @@
     <row r="240" spans="1:19" x14ac:dyDescent="0.25">
       <c r="O240" s="15">
         <f>N241</f>
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q240" s="15">
         <f>N241</f>
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="241" spans="1:17" x14ac:dyDescent="0.25">
@@ -21137,7 +20664,7 @@
       </c>
       <c r="B241" s="18">
         <f t="shared" ref="B241:J241" si="0">COUNTIF(B3:B238,"0")</f>
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C241" s="18">
         <f t="shared" si="0"/>
@@ -21145,32 +20672,32 @@
       </c>
       <c r="D241" s="18">
         <f t="shared" si="0"/>
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E241" s="18">
         <f t="shared" si="0"/>
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F241" s="18"/>
       <c r="G241" s="18">
         <f t="shared" si="0"/>
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H241" s="18">
         <f t="shared" si="0"/>
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I241" s="18"/>
       <c r="J241" s="18">
         <f t="shared" si="0"/>
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K241" s="18"/>
       <c r="L241" s="18"/>
       <c r="M241" s="13"/>
       <c r="N241" s="13">
         <f>COUNTIF(N3:N238,"0")</f>
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O241" s="13">
         <f>COUNTIF(O3:O238,"0")</f>
@@ -21380,11 +20907,11 @@
       </c>
       <c r="K249" s="15">
         <f t="shared" si="3"/>
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M249" s="15">
         <f t="shared" si="4"/>
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="250" spans="1:17" x14ac:dyDescent="0.25">
@@ -21439,8 +20966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AB37" sqref="AB37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Thesis/Fragestellungen.xlsx
+++ b/Thesis/Fragestellungen.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="16500" yWindow="0" windowWidth="27300" windowHeight="12420" activeTab="2"/>
+    <workbookView xWindow="18000" yWindow="0" windowWidth="27300" windowHeight="12420" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Fragestellungen" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="272">
   <si>
     <t>Prio</t>
   </si>
@@ -1217,21 +1217,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -1308,18 +1293,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Analyse!$B$241:$B$243</c:f>
+              <c:f>Analyse!$B$241:$B$242</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>187</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1429,7 +1411,17 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.28439803233551031"/>
+          <c:y val="5.0925925925925923E-2"/>
+          <c:w val="0.68432975728780177"/>
+          <c:h val="0.94444444444444442"/>
+        </c:manualLayout>
+      </c:layout>
       <c:ofPieChart>
         <c:ofPieType val="pie"/>
         <c:varyColors val="1"/>
@@ -1486,7 +1478,37 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
               </a:solidFill>
               <a:ln w="19050">
                 <a:solidFill>
@@ -1501,8 +1523,50 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.16308558445119734"/>
-                  <c:y val="2.7777777777777693E-2"/>
+                  <c:x val="0.24268757450094858"/>
+                  <c:y val="3.7037037037036952E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.20289016111791996"/>
+                  <c:y val="3.4650408282298047E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.7753247262002696E-3"/>
+                  <c:y val="-5.0641586468358119E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="bestFit"/>
@@ -1520,7 +1584,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
-              <c:layout/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.1599538863612197E-3"/>
+                  <c:y val="7.4074074074074153E-2"/>
+                </c:manualLayout>
+              </c:layout>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -1528,7 +1597,7 @@
                   <a:p>
                     <a:r>
                       <a:rPr lang="en-US"/>
-                      <a:t>mehrdeutig</a:t>
+                      <a:t>Wort nicht im Korpus</a:t>
                     </a:r>
                     <a:r>
                       <a:rPr lang="en-US" baseline="0"/>
@@ -1543,7 +1612,7 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="inEnd"/>
+              <c:dLblPos val="bestFit"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="1"/>
@@ -1555,6 +1624,80 @@
                   <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.5608291500875822E-2"/>
+                  <c:y val="-6.4814814814814811E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>Wort</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t> nicht im Korpus</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>; 24</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.14916128021310773"/>
+                  <c:y val="0"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>mehrdeutig; 64</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1617,9 +1760,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Analyse!$N$245:$N$247</c:f>
+              <c:f>Analyse!$N$245:$N$249</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>nicht mehrdeutig</c:v>
                 </c:pt>
@@ -1629,23 +1772,35 @@
                 <c:pt idx="2">
                   <c:v>erkannt</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>Wort nicht im Korpus</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Wort nicht im Korpus</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Analyse!$Q$240:$Q$242</c:f>
+              <c:f>Analyse!$Q$240:$Q$244</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>172</c:v>
+                  <c:v>148</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>58</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1661,8 +1816,12 @@
           <c:showLeaderLines val="1"/>
         </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:splitType val="pos"/>
-        <c:splitPos val="2"/>
+        <c:splitType val="cust"/>
+        <c:custSplit>
+          <c:secondPiePt val="1"/>
+          <c:secondPiePt val="2"/>
+          <c:secondPiePt val="3"/>
+        </c:custSplit>
         <c:secondPieSize val="75"/>
         <c:serLines>
           <c:spPr>
@@ -1689,6 +1848,10 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="l"/>
+      <c:legendEntry>
+        <c:idx val="4"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -1751,7 +1914,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -2056,21 +2219,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -2147,18 +2295,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Analyse!$E$241:$E$243</c:f>
+              <c:f>Analyse!$E$241:$E$242</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>199</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2247,7 +2392,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -2495,7 +2640,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -2543,21 +2688,6 @@
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
               </a:solidFill>
               <a:ln w="19050">
                 <a:solidFill>
@@ -2643,18 +2773,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Analyse!$H$241:$H$243</c:f>
+              <c:f>Analyse!$H$241:$H$242</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>102</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>134</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2743,7 +2870,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -2896,7 +3023,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>143</c:v>
+                  <c:v>144</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>67</c:v>
@@ -2991,7 +3118,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -3427,7 +3554,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -3917,7 +4044,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -4010,8 +4137,29 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.18582901017969769"/>
-                  <c:y val="1.8518518518518517E-2"/>
+                  <c:x val="0.21710122055638562"/>
+                  <c:y val="-0.12962962962962971"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.2023065773494731"/>
+                  <c:y val="5.098862642169729E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="bestFit"/>
@@ -4261,7 +4409,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -10584,10 +10732,10 @@
   <dimension ref="A1:S251"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="F51" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C117" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B76" sqref="B76"/>
+      <selection pane="bottomRight" activeCell="J127" sqref="J127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15907,7 +16055,9 @@
         <v>1</v>
       </c>
       <c r="I126" s="20"/>
-      <c r="J126" s="20"/>
+      <c r="J126" s="20">
+        <v>0</v>
+      </c>
       <c r="K126" s="13" t="s">
         <v>256</v>
       </c>
@@ -19675,8 +19825,8 @@
         <v>0</v>
       </c>
       <c r="P215" s="20"/>
-      <c r="Q215" s="20">
-        <v>0</v>
+      <c r="Q215" s="20" t="s">
+        <v>251</v>
       </c>
       <c r="R215" s="13"/>
       <c r="S215" s="13"/>
@@ -20654,8 +20804,8 @@
         <v>172</v>
       </c>
       <c r="Q240" s="15">
-        <f>N241</f>
-        <v>172</v>
+        <f>N241-Q244</f>
+        <v>148</v>
       </c>
     </row>
     <row r="241" spans="1:17" x14ac:dyDescent="0.25">
@@ -20690,7 +20840,7 @@
       <c r="I241" s="18"/>
       <c r="J241" s="18">
         <f t="shared" si="0"/>
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K241" s="18"/>
       <c r="L241" s="18"/>
@@ -20706,7 +20856,7 @@
       <c r="P241" s="13"/>
       <c r="Q241" s="13">
         <f>COUNTIF(Q3:Q238,"0")</f>
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="242" spans="1:17" x14ac:dyDescent="0.25">
@@ -20805,7 +20955,12 @@
       <c r="P243" s="13"/>
       <c r="Q243" s="13">
         <f>N242-(Q241+Q242)</f>
-        <v>0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q244" s="15">
+        <v>24</v>
       </c>
     </row>
     <row r="245" spans="1:17" x14ac:dyDescent="0.25">
@@ -20900,6 +21055,9 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="N248" s="15" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="249" spans="1:17" x14ac:dyDescent="0.25">
       <c r="J249" s="15" t="s">
@@ -20912,6 +21070,9 @@
       <c r="M249" s="15">
         <f t="shared" si="4"/>
         <v>126</v>
+      </c>
+      <c r="N249" s="15" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="250" spans="1:17" x14ac:dyDescent="0.25">
@@ -20966,13 +21127,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AF27" sqref="AF27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" scale="95" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Thesis/Fragestellungen.xlsx
+++ b/Thesis/Fragestellungen.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="18000" yWindow="0" windowWidth="27300" windowHeight="12420" activeTab="2"/>
+    <workbookView xWindow="19500" yWindow="0" windowWidth="27300" windowHeight="12420" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Fragestellungen" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="273">
   <si>
     <t>Prio</t>
   </si>
@@ -842,6 +842,9 @@
   </si>
   <si>
     <t>Tech, Full trained</t>
+  </si>
+  <si>
+    <t>verschiedenes</t>
   </si>
 </sst>
 </file>
@@ -1753,9 +1756,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -3438,7 +3439,7 @@
                   <c:v>in Beziehung</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>mixed</c:v>
+                  <c:v>verschiedenes</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3922,7 +3923,7 @@
                   <c:v>in Beziehung</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>mixed</c:v>
+                  <c:v>verschiedenes</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Wort nicht im Korpus</c:v>
@@ -10731,11 +10732,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S251"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C117" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="E222" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J127" sqref="J127"/>
+      <selection pane="bottomRight" activeCell="M252" sqref="M252"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21076,15 +21077,18 @@
       </c>
     </row>
     <row r="250" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I250" s="15" t="s">
+        <v>253</v>
+      </c>
       <c r="J250" s="15" t="s">
-        <v>253</v>
+        <v>272</v>
       </c>
       <c r="K250" s="15">
-        <f t="shared" si="3"/>
+        <f>COUNTIF($K$3:$K$238,I250)</f>
         <v>36</v>
       </c>
       <c r="M250" s="15">
-        <f t="shared" si="4"/>
+        <f>COUNTIF($M$3:$M$238,I250)</f>
         <v>47</v>
       </c>
     </row>
@@ -21097,7 +21101,7 @@
         <v>0</v>
       </c>
       <c r="M251" s="15">
-        <f t="shared" si="4"/>
+        <f>COUNTIF($M$3:$M$238,J251)</f>
         <v>25</v>
       </c>
     </row>
@@ -21127,7 +21131,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="P1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AF27" sqref="AF27"/>
     </sheetView>
   </sheetViews>

--- a/Thesis/Fragestellungen.xlsx
+++ b/Thesis/Fragestellungen.xlsx
@@ -2232,10 +2232,10 @@
                   <c:v>146</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>59</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1</c:v>
@@ -4690,10 +4690,10 @@
                   <c:v>170</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>60</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10733,8 +10733,8 @@
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabelle2" displayName="Tabelle2" ref="A2:O238" totalsRowShown="0" dataDxfId="19" headerRowBorderDxfId="20" tableBorderDxfId="18" totalsRowBorderDxfId="17">
   <autoFilter ref="A2:O238"/>
-  <sortState ref="A3:S238">
-    <sortCondition descending="1" ref="J2:J238"/>
+  <sortState ref="A3:O238">
+    <sortCondition descending="1" ref="H2:H238"/>
   </sortState>
   <tableColumns count="15">
     <tableColumn id="1" name="Spalte1" dataDxfId="16"/>
@@ -11148,10 +11148,10 @@
   <dimension ref="A1:O251"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K23" sqref="K23"/>
+      <selection pane="bottomRight" activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11248,182 +11248,158 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
-        <v>9</v>
+        <v>88</v>
       </c>
       <c r="B3" s="18">
         <v>0</v>
       </c>
-      <c r="C3" s="18">
-        <v>0</v>
+      <c r="C3" s="18" t="s">
+        <v>251</v>
       </c>
       <c r="D3" s="13">
-        <v>1</v>
-      </c>
-      <c r="E3" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>251</v>
       </c>
       <c r="F3" s="18">
         <v>0</v>
       </c>
-      <c r="G3" s="18">
-        <v>1</v>
+      <c r="G3" s="18" t="s">
+        <v>251</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="J3" s="18">
-        <v>1</v>
-      </c>
-      <c r="K3" s="18">
-        <v>1</v>
-      </c>
-      <c r="L3" s="18">
-        <v>0</v>
-      </c>
-      <c r="M3" s="18">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
       <c r="N3" s="13"/>
       <c r="O3" s="20"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="B4" s="18">
         <v>0</v>
       </c>
-      <c r="C4" s="18">
-        <v>0</v>
+      <c r="C4" s="18" t="s">
+        <v>251</v>
       </c>
       <c r="D4" s="13">
-        <v>1</v>
-      </c>
-      <c r="E4" s="13">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>251</v>
       </c>
       <c r="F4" s="18">
         <v>0</v>
       </c>
-      <c r="G4" s="18">
-        <v>0</v>
+      <c r="G4" s="18" t="s">
+        <v>251</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="J4" s="18">
-        <v>1</v>
-      </c>
-      <c r="K4" s="18">
-        <v>1</v>
-      </c>
-      <c r="L4" s="18">
-        <v>0</v>
-      </c>
-      <c r="M4" s="18">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
       <c r="N4" s="13"/>
       <c r="O4" s="20"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
-        <v>14</v>
+        <v>165</v>
       </c>
       <c r="B5" s="18">
         <v>0</v>
       </c>
-      <c r="C5" s="18">
-        <v>0</v>
+      <c r="C5" s="18" t="s">
+        <v>251</v>
       </c>
       <c r="D5" s="13">
-        <v>1</v>
-      </c>
-      <c r="E5" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>251</v>
       </c>
       <c r="F5" s="18">
-        <v>0</v>
-      </c>
-      <c r="G5" s="18">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>251</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="J5" s="18">
-        <v>1</v>
-      </c>
-      <c r="K5" s="18">
-        <v>0</v>
-      </c>
-      <c r="L5" s="18">
-        <v>0</v>
-      </c>
-      <c r="M5" s="18">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
       <c r="N5" s="13"/>
       <c r="O5" s="20"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="B6" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" s="13">
         <v>0</v>
       </c>
       <c r="E6" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="J6" s="18">
-        <v>1</v>
-      </c>
-      <c r="K6" s="18">
-        <v>1</v>
-      </c>
-      <c r="L6" s="18">
-        <v>1</v>
-      </c>
-      <c r="M6" s="18">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
       <c r="N6" s="13"/>
       <c r="O6" s="20"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
-        <v>18</v>
+        <v>120</v>
       </c>
       <c r="B7" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" s="18">
         <v>1</v>
@@ -11432,41 +11408,35 @@
         <v>0</v>
       </c>
       <c r="E7" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="I7" s="13" t="s">
         <v>256</v>
       </c>
-      <c r="I7" s="13" t="s">
-        <v>252</v>
-      </c>
       <c r="J7" s="18">
-        <v>1</v>
-      </c>
-      <c r="K7" s="18">
-        <v>0</v>
-      </c>
-      <c r="L7" s="18">
-        <v>0</v>
-      </c>
-      <c r="M7" s="18">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
       <c r="N7" s="13"/>
       <c r="O7" s="20"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
-        <v>19</v>
+        <v>164</v>
       </c>
       <c r="B8" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" s="18">
         <v>0</v>
@@ -11475,13 +11445,13 @@
         <v>0</v>
       </c>
       <c r="E8" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" s="18">
         <v>1</v>
       </c>
       <c r="G8" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" s="13" t="s">
         <v>253</v>
@@ -11490,23 +11460,17 @@
         <v>256</v>
       </c>
       <c r="J8" s="18">
-        <v>1</v>
-      </c>
-      <c r="K8" s="18">
-        <v>1</v>
-      </c>
-      <c r="L8" s="18">
-        <v>1</v>
-      </c>
-      <c r="M8" s="18">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
       <c r="N8" s="13"/>
       <c r="O8" s="20"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
-        <v>21</v>
+        <v>166</v>
       </c>
       <c r="B9" s="18">
         <v>0</v>
@@ -11515,170 +11479,146 @@
         <v>0</v>
       </c>
       <c r="D9" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="J9" s="18">
-        <v>1</v>
-      </c>
-      <c r="K9" s="18">
-        <v>1</v>
-      </c>
-      <c r="L9" s="18">
-        <v>1</v>
-      </c>
-      <c r="M9" s="18">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
       <c r="N9" s="13"/>
       <c r="O9" s="20"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
-        <v>24</v>
+        <v>171</v>
       </c>
       <c r="B10" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" s="18">
         <v>1</v>
       </c>
       <c r="H10" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="I10" s="13" t="s">
         <v>256</v>
       </c>
-      <c r="I10" s="13" t="s">
-        <v>252</v>
-      </c>
       <c r="J10" s="18">
-        <v>1</v>
-      </c>
-      <c r="K10" s="18">
-        <v>0</v>
-      </c>
-      <c r="L10" s="18">
-        <v>0</v>
-      </c>
-      <c r="M10" s="18">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
       <c r="N10" s="13"/>
       <c r="O10" s="20"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
-        <v>25</v>
+        <v>172</v>
       </c>
       <c r="B11" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="J11" s="18">
-        <v>1</v>
-      </c>
-      <c r="K11" s="18">
-        <v>1</v>
-      </c>
-      <c r="L11" s="18">
-        <v>0</v>
-      </c>
-      <c r="M11" s="18">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
       <c r="N11" s="13"/>
       <c r="O11" s="20"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
-        <v>23</v>
+        <v>236</v>
       </c>
       <c r="B12" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" s="18">
         <v>0</v>
       </c>
       <c r="D12" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" s="18">
         <v>1</v>
       </c>
       <c r="G12" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" s="13" t="s">
         <v>253</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="J12" s="18">
-        <v>1</v>
-      </c>
-      <c r="K12" s="18">
-        <v>1</v>
-      </c>
-      <c r="L12" s="18">
-        <v>1</v>
-      </c>
-      <c r="M12" s="18">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
       <c r="N12" s="13"/>
       <c r="O12" s="20"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
-        <v>28</v>
+        <v>240</v>
       </c>
       <c r="B13" s="18">
         <v>0</v>
@@ -11690,41 +11630,35 @@
         <v>0</v>
       </c>
       <c r="E13" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" s="18">
         <v>1</v>
       </c>
       <c r="G13" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" s="13" t="s">
         <v>253</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="J13" s="18">
-        <v>1</v>
-      </c>
-      <c r="K13" s="18">
-        <v>0</v>
-      </c>
-      <c r="L13" s="18">
-        <v>1</v>
-      </c>
-      <c r="M13" s="18">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
       <c r="N13" s="13"/>
       <c r="O13" s="20"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B14" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" s="18">
         <v>0</v>
@@ -11742,19 +11676,19 @@
         <v>0</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I14" s="13" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="J14" s="18">
         <v>1</v>
       </c>
       <c r="K14" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" s="18">
         <v>0</v>
@@ -11764,7 +11698,7 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B15" s="18">
         <v>1</v>
@@ -11773,13 +11707,13 @@
         <v>0</v>
       </c>
       <c r="D15" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" s="13">
         <v>1</v>
       </c>
       <c r="F15" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" s="18">
         <v>0</v>
@@ -11797,7 +11731,7 @@
         <v>1</v>
       </c>
       <c r="L15" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" s="18">
         <v>0</v>
@@ -11807,7 +11741,7 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B16" s="18">
         <v>0</v>
@@ -11819,19 +11753,19 @@
         <v>0</v>
       </c>
       <c r="E16" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" s="18">
         <v>0</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="I16" s="13" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="J16" s="18">
         <v>1</v>
@@ -11840,7 +11774,7 @@
         <v>0</v>
       </c>
       <c r="L16" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" s="18">
         <v>0</v>
@@ -11850,7 +11784,7 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B17" s="18">
         <v>1</v>
@@ -11859,7 +11793,7 @@
         <v>0</v>
       </c>
       <c r="D17" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" s="13">
         <v>1</v>
@@ -11871,10 +11805,10 @@
         <v>0</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J17" s="18">
         <v>1</v>
@@ -11893,13 +11827,13 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="B18" s="18">
         <v>0</v>
       </c>
       <c r="C18" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" s="13">
         <v>0</v>
@@ -11908,16 +11842,16 @@
         <v>0</v>
       </c>
       <c r="F18" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="I18" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J18" s="18">
         <v>1</v>
@@ -11929,14 +11863,14 @@
         <v>0</v>
       </c>
       <c r="M18" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N18" s="13"/>
       <c r="O18" s="20"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
-        <v>44</v>
+        <v>149</v>
       </c>
       <c r="B19" s="18">
         <v>0</v>
@@ -11954,13 +11888,13 @@
         <v>1</v>
       </c>
       <c r="G19" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="I19" s="13" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="J19" s="18">
         <v>1</v>
@@ -11979,10 +11913,10 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="19" t="s">
-        <v>49</v>
+        <v>169</v>
       </c>
       <c r="B20" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" s="18">
         <v>0</v>
@@ -11994,22 +11928,22 @@
         <v>0</v>
       </c>
       <c r="F20" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" s="18">
         <v>0</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="I20" s="13" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="J20" s="18">
         <v>1</v>
       </c>
       <c r="K20" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20" s="18">
         <v>0</v>
@@ -12022,7 +11956,7 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="19" t="s">
-        <v>58</v>
+        <v>176</v>
       </c>
       <c r="B21" s="18">
         <v>0</v>
@@ -12037,13 +11971,13 @@
         <v>1</v>
       </c>
       <c r="F21" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" s="18">
         <v>0</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="I21" s="13" t="s">
         <v>252</v>
@@ -12052,10 +11986,10 @@
         <v>1</v>
       </c>
       <c r="K21" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21" s="18">
         <v>0</v>
@@ -12065,7 +11999,7 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="19" t="s">
-        <v>59</v>
+        <v>184</v>
       </c>
       <c r="B22" s="18">
         <v>0</v>
@@ -12077,7 +12011,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" s="18">
         <v>0</v>
@@ -12086,16 +12020,16 @@
         <v>0</v>
       </c>
       <c r="H22" s="13" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I22" s="13" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="J22" s="18">
         <v>1</v>
       </c>
       <c r="K22" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22" s="18">
         <v>0</v>
@@ -12108,7 +12042,7 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="19" t="s">
-        <v>60</v>
+        <v>199</v>
       </c>
       <c r="B23" s="18">
         <v>0</v>
@@ -12123,13 +12057,13 @@
         <v>0</v>
       </c>
       <c r="F23" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I23" s="13" t="s">
         <v>253</v>
@@ -12137,7 +12071,9 @@
       <c r="J23" s="18">
         <v>1</v>
       </c>
-      <c r="K23" s="18"/>
+      <c r="K23" s="18">
+        <v>0</v>
+      </c>
       <c r="L23" s="18">
         <v>0</v>
       </c>
@@ -12149,19 +12085,19 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="19" t="s">
-        <v>61</v>
+        <v>8</v>
       </c>
       <c r="B24" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" s="13">
         <v>0</v>
       </c>
       <c r="E24" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" s="18">
         <v>0</v>
@@ -12170,39 +12106,35 @@
         <v>0</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I24" s="13" t="s">
         <v>252</v>
       </c>
       <c r="J24" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24" s="18"/>
-      <c r="L24" s="18">
-        <v>0</v>
-      </c>
-      <c r="M24" s="18">
-        <v>0</v>
-      </c>
+      <c r="L24" s="18"/>
+      <c r="M24" s="18"/>
       <c r="N24" s="13"/>
       <c r="O24" s="20"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="19" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="B25" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" s="13">
         <v>0</v>
       </c>
       <c r="E25" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" s="18">
         <v>1</v>
@@ -12211,27 +12143,23 @@
         <v>0</v>
       </c>
       <c r="H25" s="13" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="I25" s="13" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="J25" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25" s="18"/>
-      <c r="L25" s="18">
-        <v>0</v>
-      </c>
-      <c r="M25" s="18">
-        <v>0</v>
-      </c>
+      <c r="L25" s="18"/>
+      <c r="M25" s="18"/>
       <c r="N25" s="13"/>
       <c r="O25" s="20"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="19" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="B26" s="18">
         <v>0</v>
@@ -12243,7 +12171,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" s="18">
         <v>1</v>
@@ -12258,33 +12186,29 @@
         <v>252</v>
       </c>
       <c r="J26" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26" s="18"/>
-      <c r="L26" s="18">
-        <v>0</v>
-      </c>
-      <c r="M26" s="18">
-        <v>0</v>
-      </c>
+      <c r="L26" s="18"/>
+      <c r="M26" s="18"/>
       <c r="N26" s="13"/>
       <c r="O26" s="20"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="19" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="B27" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27" s="18">
         <v>0</v>
       </c>
       <c r="D27" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27" s="18">
         <v>0</v>
@@ -12293,30 +12217,26 @@
         <v>0</v>
       </c>
       <c r="H27" s="13" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I27" s="13" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="J27" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27" s="18"/>
-      <c r="L27" s="18">
-        <v>0</v>
-      </c>
-      <c r="M27" s="18">
-        <v>0</v>
-      </c>
+      <c r="L27" s="18"/>
+      <c r="M27" s="18"/>
       <c r="N27" s="13"/>
       <c r="O27" s="20"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="19" t="s">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="B28" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C28" s="18">
         <v>0</v>
@@ -12325,7 +12245,7 @@
         <v>0</v>
       </c>
       <c r="E28" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28" s="18">
         <v>1</v>
@@ -12334,30 +12254,26 @@
         <v>0</v>
       </c>
       <c r="H28" s="13" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="I28" s="13" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="J28" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K28" s="18"/>
-      <c r="L28" s="18">
-        <v>0</v>
-      </c>
-      <c r="M28" s="18">
-        <v>1</v>
-      </c>
+      <c r="L28" s="18"/>
+      <c r="M28" s="18"/>
       <c r="N28" s="13"/>
       <c r="O28" s="20"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="19" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="B29" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29" s="18">
         <v>0</v>
@@ -12366,7 +12282,7 @@
         <v>0</v>
       </c>
       <c r="E29" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29" s="18">
         <v>0</v>
@@ -12375,39 +12291,35 @@
         <v>0</v>
       </c>
       <c r="H29" s="13" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I29" s="13" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="J29" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29" s="18"/>
-      <c r="L29" s="18">
-        <v>0</v>
-      </c>
-      <c r="M29" s="18">
-        <v>0</v>
-      </c>
+      <c r="L29" s="18"/>
+      <c r="M29" s="18"/>
       <c r="N29" s="13"/>
       <c r="O29" s="20"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="19" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="B30" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C30" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30" s="13">
         <v>0</v>
       </c>
       <c r="E30" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30" s="18">
         <v>1</v>
@@ -12416,30 +12328,26 @@
         <v>0</v>
       </c>
       <c r="H30" s="13" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I30" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J30" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K30" s="18"/>
-      <c r="L30" s="18">
-        <v>0</v>
-      </c>
-      <c r="M30" s="18">
-        <v>0</v>
-      </c>
+      <c r="L30" s="18"/>
+      <c r="M30" s="18"/>
       <c r="N30" s="13"/>
       <c r="O30" s="20"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="19" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="B31" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C31" s="18">
         <v>0</v>
@@ -12457,30 +12365,26 @@
         <v>0</v>
       </c>
       <c r="H31" s="13" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I31" s="13" t="s">
         <v>253</v>
       </c>
       <c r="J31" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K31" s="18"/>
-      <c r="L31" s="18">
-        <v>0</v>
-      </c>
-      <c r="M31" s="18">
-        <v>0</v>
-      </c>
+      <c r="L31" s="18"/>
+      <c r="M31" s="18"/>
       <c r="N31" s="13"/>
       <c r="O31" s="20"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="19" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="B32" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C32" s="18">
         <v>0</v>
@@ -12492,33 +12396,29 @@
         <v>0</v>
       </c>
       <c r="F32" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G32" s="18">
         <v>0</v>
       </c>
       <c r="H32" s="13" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="I32" s="13" t="s">
         <v>252</v>
       </c>
       <c r="J32" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32" s="18"/>
-      <c r="L32" s="18">
-        <v>0</v>
-      </c>
-      <c r="M32" s="18">
-        <v>0</v>
-      </c>
+      <c r="L32" s="18"/>
+      <c r="M32" s="18"/>
       <c r="N32" s="13"/>
       <c r="O32" s="20"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="19" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="B33" s="18">
         <v>0</v>
@@ -12527,42 +12427,38 @@
         <v>0</v>
       </c>
       <c r="D33" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G33" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H33" s="13" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I33" s="13" t="s">
         <v>252</v>
       </c>
       <c r="J33" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K33" s="18"/>
-      <c r="L33" s="18">
-        <v>0</v>
-      </c>
-      <c r="M33" s="18">
-        <v>0</v>
-      </c>
+      <c r="L33" s="18"/>
+      <c r="M33" s="18"/>
       <c r="N33" s="13"/>
       <c r="O33" s="20"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="19" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="B34" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C34" s="18">
         <v>0</v>
@@ -12571,36 +12467,32 @@
         <v>0</v>
       </c>
       <c r="E34" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G34" s="18">
         <v>0</v>
       </c>
       <c r="H34" s="13" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="I34" s="13" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="J34" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K34" s="18"/>
-      <c r="L34" s="18">
-        <v>0</v>
-      </c>
-      <c r="M34" s="18">
-        <v>0</v>
-      </c>
+      <c r="L34" s="18"/>
+      <c r="M34" s="18"/>
       <c r="N34" s="13"/>
       <c r="O34" s="20"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="19" t="s">
-        <v>124</v>
+        <v>148</v>
       </c>
       <c r="B35" s="18">
         <v>0</v>
@@ -12609,7 +12501,7 @@
         <v>0</v>
       </c>
       <c r="D35" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E35" s="13">
         <v>1</v>
@@ -12621,27 +12513,23 @@
         <v>0</v>
       </c>
       <c r="H35" s="13" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I35" s="13" t="s">
         <v>252</v>
       </c>
       <c r="J35" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35" s="18"/>
-      <c r="L35" s="18">
-        <v>0</v>
-      </c>
-      <c r="M35" s="18">
-        <v>0</v>
-      </c>
+      <c r="L35" s="18"/>
+      <c r="M35" s="18"/>
       <c r="N35" s="13"/>
       <c r="O35" s="20"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="19" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="B36" s="18">
         <v>0</v>
@@ -12653,7 +12541,7 @@
         <v>0</v>
       </c>
       <c r="E36" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36" s="18">
         <v>1</v>
@@ -12662,27 +12550,23 @@
         <v>0</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="I36" s="13" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="J36" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K36" s="18"/>
-      <c r="L36" s="18">
-        <v>0</v>
-      </c>
-      <c r="M36" s="18">
-        <v>0</v>
-      </c>
+      <c r="L36" s="18"/>
+      <c r="M36" s="18"/>
       <c r="N36" s="13"/>
       <c r="O36" s="20"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="19" t="s">
-        <v>137</v>
+        <v>187</v>
       </c>
       <c r="B37" s="18">
         <v>0</v>
@@ -12700,36 +12584,32 @@
         <v>1</v>
       </c>
       <c r="G37" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37" s="13" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I37" s="13" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="J37" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K37" s="18"/>
-      <c r="L37" s="18">
-        <v>0</v>
-      </c>
-      <c r="M37" s="18">
-        <v>0</v>
-      </c>
+      <c r="L37" s="18"/>
+      <c r="M37" s="18"/>
       <c r="N37" s="13"/>
       <c r="O37" s="20"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="19" t="s">
-        <v>138</v>
+        <v>197</v>
       </c>
       <c r="B38" s="18">
         <v>0</v>
       </c>
       <c r="C38" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D38" s="13">
         <v>0</v>
@@ -12738,33 +12618,29 @@
         <v>1</v>
       </c>
       <c r="F38" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G38" s="18">
         <v>0</v>
       </c>
       <c r="H38" s="13" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="I38" s="13" t="s">
         <v>252</v>
       </c>
       <c r="J38" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K38" s="18"/>
-      <c r="L38" s="18">
-        <v>0</v>
-      </c>
-      <c r="M38" s="18">
-        <v>0</v>
-      </c>
+      <c r="L38" s="18"/>
+      <c r="M38" s="18"/>
       <c r="N38" s="13"/>
       <c r="O38" s="20"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="19" t="s">
-        <v>140</v>
+        <v>209</v>
       </c>
       <c r="B39" s="18">
         <v>0</v>
@@ -12776,487 +12652,445 @@
         <v>0</v>
       </c>
       <c r="E39" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39" s="18">
         <v>1</v>
       </c>
       <c r="G39" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39" s="13" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I39" s="13" t="s">
         <v>252</v>
       </c>
       <c r="J39" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K39" s="18"/>
-      <c r="L39" s="18">
-        <v>0</v>
-      </c>
-      <c r="M39" s="18">
-        <v>0</v>
-      </c>
+      <c r="L39" s="18"/>
+      <c r="M39" s="18"/>
       <c r="N39" s="13"/>
       <c r="O39" s="20"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="19" t="s">
-        <v>144</v>
+        <v>219</v>
       </c>
       <c r="B40" s="18">
         <v>0</v>
       </c>
-      <c r="C40" s="18">
-        <v>0</v>
+      <c r="C40" s="18" t="s">
+        <v>251</v>
       </c>
       <c r="D40" s="13">
         <v>1</v>
       </c>
-      <c r="E40" s="13">
-        <v>0</v>
+      <c r="E40" s="13" t="s">
+        <v>251</v>
       </c>
       <c r="F40" s="18">
         <v>0</v>
       </c>
-      <c r="G40" s="18">
-        <v>1</v>
+      <c r="G40" s="18" t="s">
+        <v>251</v>
       </c>
       <c r="H40" s="13" t="s">
         <v>252</v>
       </c>
       <c r="I40" s="13" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="J40" s="18">
         <v>1</v>
       </c>
-      <c r="K40" s="18"/>
+      <c r="K40" s="18">
+        <v>0</v>
+      </c>
       <c r="L40" s="18">
         <v>0</v>
       </c>
-      <c r="M40" s="18">
-        <v>0</v>
+      <c r="M40" s="18" t="s">
+        <v>251</v>
       </c>
       <c r="N40" s="13"/>
       <c r="O40" s="20"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="19" t="s">
-        <v>149</v>
+        <v>54</v>
       </c>
       <c r="B41" s="18">
         <v>0</v>
       </c>
-      <c r="C41" s="18">
-        <v>0</v>
+      <c r="C41" s="18" t="s">
+        <v>251</v>
       </c>
       <c r="D41" s="13">
         <v>0</v>
       </c>
-      <c r="E41" s="13">
-        <v>0</v>
+      <c r="E41" s="13" t="s">
+        <v>251</v>
       </c>
       <c r="F41" s="18">
         <v>1</v>
       </c>
-      <c r="G41" s="18">
-        <v>0</v>
+      <c r="G41" s="18" t="s">
+        <v>251</v>
       </c>
       <c r="H41" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I41" s="13" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="J41" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K41" s="18"/>
-      <c r="L41" s="18">
-        <v>0</v>
-      </c>
-      <c r="M41" s="18">
-        <v>0</v>
-      </c>
+      <c r="L41" s="18"/>
+      <c r="M41" s="18"/>
       <c r="N41" s="13"/>
       <c r="O41" s="20"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="19" t="s">
-        <v>158</v>
+        <v>56</v>
       </c>
       <c r="B42" s="18">
         <v>0</v>
       </c>
-      <c r="C42" s="18">
-        <v>0</v>
+      <c r="C42" s="18" t="s">
+        <v>251</v>
       </c>
       <c r="D42" s="13">
         <v>0</v>
       </c>
-      <c r="E42" s="13">
-        <v>0</v>
+      <c r="E42" s="13" t="s">
+        <v>251</v>
       </c>
       <c r="F42" s="18">
         <v>1</v>
       </c>
-      <c r="G42" s="18">
-        <v>1</v>
+      <c r="G42" s="18" t="s">
+        <v>251</v>
       </c>
       <c r="H42" s="13" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="I42" s="13" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="J42" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K42" s="18"/>
-      <c r="L42" s="18">
-        <v>0</v>
-      </c>
-      <c r="M42" s="18">
-        <v>0</v>
-      </c>
+      <c r="L42" s="18"/>
+      <c r="M42" s="18"/>
       <c r="N42" s="13"/>
       <c r="O42" s="20"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="19" t="s">
-        <v>169</v>
+        <v>82</v>
       </c>
       <c r="B43" s="18">
         <v>0</v>
       </c>
-      <c r="C43" s="18">
-        <v>0</v>
+      <c r="C43" s="18" t="s">
+        <v>251</v>
       </c>
       <c r="D43" s="13">
         <v>0</v>
       </c>
-      <c r="E43" s="13">
-        <v>0</v>
+      <c r="E43" s="13" t="s">
+        <v>251</v>
       </c>
       <c r="F43" s="18">
-        <v>0</v>
-      </c>
-      <c r="G43" s="18">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G43" s="18" t="s">
+        <v>251</v>
       </c>
       <c r="H43" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I43" s="13" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="J43" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K43" s="18"/>
-      <c r="L43" s="18">
-        <v>0</v>
-      </c>
-      <c r="M43" s="18">
-        <v>0</v>
-      </c>
+      <c r="L43" s="18"/>
+      <c r="M43" s="18"/>
       <c r="N43" s="13"/>
       <c r="O43" s="20"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="19" t="s">
-        <v>170</v>
+        <v>96</v>
       </c>
       <c r="B44" s="18">
-        <v>1</v>
-      </c>
-      <c r="C44" s="18">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="C44" s="18" t="s">
+        <v>251</v>
       </c>
       <c r="D44" s="13">
         <v>0</v>
       </c>
-      <c r="E44" s="13">
-        <v>0</v>
+      <c r="E44" s="13" t="s">
+        <v>251</v>
       </c>
       <c r="F44" s="18">
         <v>1</v>
       </c>
-      <c r="G44" s="18">
-        <v>1</v>
+      <c r="G44" s="18" t="s">
+        <v>251</v>
       </c>
       <c r="H44" s="13" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="I44" s="13" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="J44" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K44" s="18"/>
-      <c r="L44" s="18">
-        <v>0</v>
-      </c>
-      <c r="M44" s="18">
-        <v>0</v>
-      </c>
+      <c r="L44" s="18"/>
+      <c r="M44" s="18"/>
       <c r="N44" s="13"/>
       <c r="O44" s="20"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="19" t="s">
-        <v>174</v>
+        <v>98</v>
       </c>
       <c r="B45" s="18">
         <v>0</v>
       </c>
-      <c r="C45" s="18">
-        <v>0</v>
+      <c r="C45" s="18" t="s">
+        <v>251</v>
       </c>
       <c r="D45" s="13">
         <v>0</v>
       </c>
-      <c r="E45" s="13">
-        <v>1</v>
+      <c r="E45" s="13" t="s">
+        <v>251</v>
       </c>
       <c r="F45" s="18">
-        <v>0</v>
-      </c>
-      <c r="G45" s="18">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G45" s="18" t="s">
+        <v>251</v>
       </c>
       <c r="H45" s="13" t="s">
         <v>252</v>
       </c>
       <c r="I45" s="13" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="J45" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K45" s="18"/>
-      <c r="L45" s="18">
-        <v>0</v>
-      </c>
-      <c r="M45" s="18">
-        <v>0</v>
-      </c>
+      <c r="L45" s="18"/>
+      <c r="M45" s="18"/>
       <c r="N45" s="13"/>
       <c r="O45" s="20"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="19" t="s">
-        <v>175</v>
+        <v>133</v>
       </c>
       <c r="B46" s="18">
         <v>0</v>
       </c>
-      <c r="C46" s="18">
-        <v>0</v>
+      <c r="C46" s="18" t="s">
+        <v>251</v>
       </c>
       <c r="D46" s="13">
         <v>0</v>
       </c>
-      <c r="E46" s="13">
-        <v>0</v>
+      <c r="E46" s="13" t="s">
+        <v>251</v>
       </c>
       <c r="F46" s="18">
         <v>0</v>
       </c>
-      <c r="G46" s="18">
-        <v>0</v>
+      <c r="G46" s="18" t="s">
+        <v>251</v>
       </c>
       <c r="H46" s="13" t="s">
         <v>252</v>
       </c>
       <c r="I46" s="13" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="J46" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K46" s="18"/>
-      <c r="L46" s="18">
-        <v>0</v>
-      </c>
-      <c r="M46" s="18">
-        <v>0</v>
-      </c>
+      <c r="L46" s="18"/>
+      <c r="M46" s="18"/>
       <c r="N46" s="13"/>
       <c r="O46" s="20"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="19" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="B47" s="18">
         <v>0</v>
       </c>
-      <c r="C47" s="18">
-        <v>0</v>
+      <c r="C47" s="18" t="s">
+        <v>251</v>
       </c>
       <c r="D47" s="13">
         <v>0</v>
       </c>
-      <c r="E47" s="13">
-        <v>1</v>
+      <c r="E47" s="13" t="s">
+        <v>251</v>
       </c>
       <c r="F47" s="18">
         <v>0</v>
       </c>
-      <c r="G47" s="18">
-        <v>0</v>
+      <c r="G47" s="18" t="s">
+        <v>251</v>
       </c>
       <c r="H47" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I47" s="13" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="J47" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K47" s="18"/>
-      <c r="L47" s="18">
-        <v>0</v>
-      </c>
-      <c r="M47" s="18">
-        <v>0</v>
-      </c>
+      <c r="L47" s="18"/>
+      <c r="M47" s="18"/>
       <c r="N47" s="13"/>
       <c r="O47" s="20"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="19" t="s">
-        <v>177</v>
+        <v>204</v>
       </c>
       <c r="B48" s="18">
         <v>0</v>
       </c>
-      <c r="C48" s="18">
-        <v>0</v>
+      <c r="C48" s="18" t="s">
+        <v>251</v>
       </c>
       <c r="D48" s="13">
-        <v>1</v>
-      </c>
-      <c r="E48" s="13">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E48" s="13" t="s">
+        <v>251</v>
       </c>
       <c r="F48" s="18">
-        <v>0</v>
-      </c>
-      <c r="G48" s="18">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G48" s="18" t="s">
+        <v>251</v>
       </c>
       <c r="H48" s="13" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="I48" s="13" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="J48" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K48" s="18"/>
-      <c r="L48" s="18">
-        <v>0</v>
-      </c>
-      <c r="M48" s="18">
-        <v>0</v>
-      </c>
+      <c r="L48" s="18"/>
+      <c r="M48" s="18"/>
       <c r="N48" s="13"/>
       <c r="O48" s="20"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="19" t="s">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="B49" s="18">
-        <v>1</v>
-      </c>
-      <c r="C49" s="18">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="C49" s="18" t="s">
+        <v>251</v>
       </c>
       <c r="D49" s="13">
-        <v>1</v>
-      </c>
-      <c r="E49" s="13">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E49" s="13" t="s">
+        <v>251</v>
       </c>
       <c r="F49" s="18">
         <v>0</v>
       </c>
-      <c r="G49" s="18">
-        <v>0</v>
+      <c r="G49" s="18" t="s">
+        <v>251</v>
       </c>
       <c r="H49" s="13" t="s">
         <v>252</v>
       </c>
       <c r="I49" s="13" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="J49" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K49" s="18"/>
-      <c r="L49" s="18">
-        <v>0</v>
-      </c>
-      <c r="M49" s="18">
-        <v>0</v>
-      </c>
+      <c r="L49" s="18"/>
+      <c r="M49" s="18"/>
       <c r="N49" s="13"/>
       <c r="O49" s="20"/>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="19" t="s">
-        <v>184</v>
+        <v>215</v>
       </c>
       <c r="B50" s="18">
         <v>0</v>
       </c>
-      <c r="C50" s="18">
-        <v>0</v>
+      <c r="C50" s="18" t="s">
+        <v>251</v>
       </c>
       <c r="D50" s="13">
         <v>0</v>
       </c>
-      <c r="E50" s="13">
-        <v>1</v>
+      <c r="E50" s="13" t="s">
+        <v>251</v>
       </c>
       <c r="F50" s="18">
-        <v>0</v>
-      </c>
-      <c r="G50" s="18">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G50" s="18" t="s">
+        <v>251</v>
       </c>
       <c r="H50" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I50" s="13" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="J50" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K50" s="18"/>
-      <c r="L50" s="18">
-        <v>0</v>
-      </c>
-      <c r="M50" s="18">
-        <v>0</v>
-      </c>
+      <c r="L50" s="18"/>
+      <c r="M50" s="18"/>
       <c r="N50" s="13"/>
       <c r="O50" s="20"/>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="19" t="s">
-        <v>185</v>
+        <v>9</v>
       </c>
       <c r="B51" s="18">
         <v>0</v>
@@ -13265,39 +13099,41 @@
         <v>0</v>
       </c>
       <c r="D51" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E51" s="13">
         <v>0</v>
       </c>
       <c r="F51" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G51" s="18">
         <v>1</v>
       </c>
       <c r="H51" s="13" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="I51" s="13" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="J51" s="18">
         <v>1</v>
       </c>
-      <c r="K51" s="18"/>
+      <c r="K51" s="18">
+        <v>1</v>
+      </c>
       <c r="L51" s="18">
         <v>0</v>
       </c>
       <c r="M51" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N51" s="13"/>
       <c r="O51" s="20"/>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="19" t="s">
-        <v>189</v>
+        <v>60</v>
       </c>
       <c r="B52" s="18">
         <v>0</v>
@@ -13312,21 +13148,23 @@
         <v>0</v>
       </c>
       <c r="F52" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G52" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H52" s="13" t="s">
         <v>252</v>
       </c>
       <c r="I52" s="13" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="J52" s="18">
         <v>1</v>
       </c>
-      <c r="K52" s="18"/>
+      <c r="K52" s="18">
+        <v>0</v>
+      </c>
       <c r="L52" s="18">
         <v>0</v>
       </c>
@@ -13338,7 +13176,7 @@
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="19" t="s">
-        <v>196</v>
+        <v>106</v>
       </c>
       <c r="B53" s="18">
         <v>0</v>
@@ -13347,13 +13185,13 @@
         <v>0</v>
       </c>
       <c r="D53" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E53" s="13">
         <v>0</v>
       </c>
       <c r="F53" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G53" s="18">
         <v>1</v>
@@ -13367,19 +13205,21 @@
       <c r="J53" s="18">
         <v>1</v>
       </c>
-      <c r="K53" s="18"/>
+      <c r="K53" s="18">
+        <v>0</v>
+      </c>
       <c r="L53" s="18">
         <v>0</v>
       </c>
       <c r="M53" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N53" s="13"/>
       <c r="O53" s="20"/>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="19" t="s">
-        <v>199</v>
+        <v>137</v>
       </c>
       <c r="B54" s="18">
         <v>0</v>
@@ -13394,21 +13234,23 @@
         <v>0</v>
       </c>
       <c r="F54" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G54" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I54" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J54" s="18">
         <v>1</v>
       </c>
-      <c r="K54" s="18"/>
+      <c r="K54" s="18">
+        <v>0</v>
+      </c>
       <c r="L54" s="18">
         <v>0</v>
       </c>
@@ -13420,7 +13262,7 @@
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="19" t="s">
-        <v>201</v>
+        <v>140</v>
       </c>
       <c r="B55" s="18">
         <v>0</v>
@@ -13449,7 +13291,9 @@
       <c r="J55" s="18">
         <v>1</v>
       </c>
-      <c r="K55" s="18"/>
+      <c r="K55" s="18">
+        <v>1</v>
+      </c>
       <c r="L55" s="18">
         <v>0</v>
       </c>
@@ -13461,7 +13305,7 @@
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="19" t="s">
-        <v>202</v>
+        <v>144</v>
       </c>
       <c r="B56" s="18">
         <v>0</v>
@@ -13470,7 +13314,7 @@
         <v>0</v>
       </c>
       <c r="D56" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E56" s="13">
         <v>0</v>
@@ -13479,7 +13323,7 @@
         <v>0</v>
       </c>
       <c r="G56" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H56" s="13" t="s">
         <v>252</v>
@@ -13490,7 +13334,9 @@
       <c r="J56" s="18">
         <v>1</v>
       </c>
-      <c r="K56" s="18"/>
+      <c r="K56" s="18">
+        <v>1</v>
+      </c>
       <c r="L56" s="18">
         <v>0</v>
       </c>
@@ -13502,7 +13348,7 @@
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="19" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="B57" s="18">
         <v>0</v>
@@ -13511,16 +13357,16 @@
         <v>0</v>
       </c>
       <c r="D57" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E57" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F57" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G57" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H57" s="13" t="s">
         <v>252</v>
@@ -13531,19 +13377,21 @@
       <c r="J57" s="18">
         <v>1</v>
       </c>
-      <c r="K57" s="18"/>
+      <c r="K57" s="18">
+        <v>1</v>
+      </c>
       <c r="L57" s="18">
         <v>0</v>
       </c>
       <c r="M57" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N57" s="13"/>
       <c r="O57" s="20"/>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="19" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B58" s="18">
         <v>0</v>
@@ -13555,13 +13403,13 @@
         <v>0</v>
       </c>
       <c r="E58" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F58" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G58" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H58" s="13" t="s">
         <v>252</v>
@@ -13572,7 +13420,9 @@
       <c r="J58" s="18">
         <v>1</v>
       </c>
-      <c r="K58" s="18"/>
+      <c r="K58" s="18">
+        <v>0</v>
+      </c>
       <c r="L58" s="18">
         <v>0</v>
       </c>
@@ -13584,7 +13434,7 @@
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="19" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="B59" s="18">
         <v>0</v>
@@ -13599,51 +13449,53 @@
         <v>0</v>
       </c>
       <c r="F59" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G59" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59" s="13" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="I59" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J59" s="18">
         <v>1</v>
       </c>
-      <c r="K59" s="18"/>
+      <c r="K59" s="18">
+        <v>1</v>
+      </c>
       <c r="L59" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M59" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N59" s="13"/>
       <c r="O59" s="20"/>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="19" t="s">
-        <v>216</v>
+        <v>22</v>
       </c>
       <c r="B60" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C60" s="18">
         <v>0</v>
       </c>
       <c r="D60" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E60" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F60" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G60" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H60" s="13" t="s">
         <v>252</v>
@@ -13652,27 +13504,23 @@
         <v>252</v>
       </c>
       <c r="J60" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K60" s="18"/>
-      <c r="L60" s="18">
-        <v>0</v>
-      </c>
-      <c r="M60" s="18">
-        <v>0</v>
-      </c>
+      <c r="L60" s="18"/>
+      <c r="M60" s="18"/>
       <c r="N60" s="13"/>
       <c r="O60" s="20"/>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="19" t="s">
-        <v>217</v>
+        <v>41</v>
       </c>
       <c r="B61" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C61" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D61" s="13">
         <v>0</v>
@@ -13693,103 +13541,91 @@
         <v>252</v>
       </c>
       <c r="J61" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K61" s="18"/>
-      <c r="L61" s="18">
-        <v>1</v>
-      </c>
-      <c r="M61" s="18">
-        <v>1</v>
-      </c>
+      <c r="L61" s="18"/>
+      <c r="M61" s="18"/>
       <c r="N61" s="13"/>
       <c r="O61" s="20"/>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="19" t="s">
-        <v>219</v>
+        <v>47</v>
       </c>
       <c r="B62" s="18">
         <v>0</v>
       </c>
-      <c r="C62" s="18" t="s">
-        <v>251</v>
+      <c r="C62" s="18">
+        <v>0</v>
       </c>
       <c r="D62" s="13">
-        <v>1</v>
-      </c>
-      <c r="E62" s="13" t="s">
-        <v>251</v>
+        <v>0</v>
+      </c>
+      <c r="E62" s="13">
+        <v>0</v>
       </c>
       <c r="F62" s="18">
-        <v>0</v>
-      </c>
-      <c r="G62" s="18" t="s">
-        <v>251</v>
+        <v>1</v>
+      </c>
+      <c r="G62" s="18">
+        <v>1</v>
       </c>
       <c r="H62" s="13" t="s">
         <v>252</v>
       </c>
       <c r="I62" s="13" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="J62" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K62" s="18"/>
-      <c r="L62" s="18">
-        <v>0</v>
-      </c>
-      <c r="M62" s="18" t="s">
-        <v>251</v>
-      </c>
+      <c r="L62" s="18"/>
+      <c r="M62" s="18"/>
       <c r="N62" s="13"/>
       <c r="O62" s="20"/>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="19" t="s">
-        <v>222</v>
+        <v>48</v>
       </c>
       <c r="B63" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C63" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D63" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E63" s="13">
         <v>0</v>
       </c>
       <c r="F63" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G63" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H63" s="13" t="s">
         <v>252</v>
       </c>
       <c r="I63" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J63" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K63" s="18"/>
-      <c r="L63" s="18">
-        <v>0</v>
-      </c>
-      <c r="M63" s="18">
-        <v>0</v>
-      </c>
+      <c r="L63" s="18"/>
+      <c r="M63" s="18"/>
       <c r="N63" s="13"/>
       <c r="O63" s="20"/>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="19" t="s">
-        <v>223</v>
+        <v>71</v>
       </c>
       <c r="B64" s="18">
         <v>0</v>
@@ -13798,39 +13634,35 @@
         <v>0</v>
       </c>
       <c r="D64" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E64" s="13">
         <v>0</v>
       </c>
       <c r="F64" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G64" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H64" s="13" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="I64" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J64" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K64" s="18"/>
-      <c r="L64" s="18">
-        <v>0</v>
-      </c>
-      <c r="M64" s="18">
-        <v>0</v>
-      </c>
+      <c r="L64" s="18"/>
+      <c r="M64" s="18"/>
       <c r="N64" s="13"/>
       <c r="O64" s="20"/>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="19" t="s">
-        <v>225</v>
+        <v>84</v>
       </c>
       <c r="B65" s="18">
         <v>0</v>
@@ -13842,13 +13674,13 @@
         <v>0</v>
       </c>
       <c r="E65" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F65" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G65" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H65" s="13" t="s">
         <v>252</v>
@@ -13857,62 +13689,54 @@
         <v>252</v>
       </c>
       <c r="J65" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K65" s="18"/>
-      <c r="L65" s="18">
-        <v>0</v>
-      </c>
-      <c r="M65" s="18">
-        <v>0</v>
-      </c>
+      <c r="L65" s="18"/>
+      <c r="M65" s="18"/>
       <c r="N65" s="13"/>
       <c r="O65" s="20"/>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="19" t="s">
-        <v>231</v>
+        <v>87</v>
       </c>
       <c r="B66" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C66" s="18">
         <v>0</v>
       </c>
       <c r="D66" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E66" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F66" s="18">
         <v>0</v>
       </c>
       <c r="G66" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H66" s="13" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="I66" s="13" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="J66" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K66" s="18"/>
-      <c r="L66" s="18">
-        <v>0</v>
-      </c>
-      <c r="M66" s="18">
-        <v>0</v>
-      </c>
+      <c r="L66" s="18"/>
+      <c r="M66" s="18"/>
       <c r="N66" s="13"/>
       <c r="O66" s="20"/>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="19" t="s">
-        <v>234</v>
+        <v>89</v>
       </c>
       <c r="B67" s="18">
         <v>0</v>
@@ -13921,39 +13745,35 @@
         <v>0</v>
       </c>
       <c r="D67" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E67" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F67" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G67" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H67" s="13" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="I67" s="13" t="s">
         <v>252</v>
       </c>
       <c r="J67" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K67" s="18"/>
-      <c r="L67" s="18">
-        <v>0</v>
-      </c>
-      <c r="M67" s="18">
-        <v>0</v>
-      </c>
+      <c r="L67" s="18"/>
+      <c r="M67" s="18"/>
       <c r="N67" s="13"/>
       <c r="O67" s="20"/>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="19" t="s">
-        <v>235</v>
+        <v>109</v>
       </c>
       <c r="B68" s="18">
         <v>0</v>
@@ -13968,10 +13788,10 @@
         <v>0</v>
       </c>
       <c r="F68" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G68" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H68" s="13" t="s">
         <v>252</v>
@@ -13980,42 +13800,38 @@
         <v>252</v>
       </c>
       <c r="J68" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K68" s="18"/>
-      <c r="L68" s="18">
-        <v>0</v>
-      </c>
-      <c r="M68" s="18">
-        <v>0</v>
-      </c>
+      <c r="L68" s="18"/>
+      <c r="M68" s="18"/>
       <c r="N68" s="13"/>
       <c r="O68" s="20"/>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="19" t="s">
-        <v>8</v>
+        <v>110</v>
       </c>
       <c r="B69" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C69" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D69" s="13">
         <v>0</v>
       </c>
       <c r="E69" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F69" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G69" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H69" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I69" s="13" t="s">
         <v>252</v>
@@ -14031,7 +13847,7 @@
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="19" t="s">
-        <v>10</v>
+        <v>111</v>
       </c>
       <c r="B70" s="18">
         <v>0</v>
@@ -14046,13 +13862,13 @@
         <v>0</v>
       </c>
       <c r="F70" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G70" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H70" s="13" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="I70" s="13" t="s">
         <v>252</v>
@@ -14068,31 +13884,31 @@
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="19" t="s">
-        <v>11</v>
+        <v>112</v>
       </c>
       <c r="B71" s="18">
-        <v>0</v>
-      </c>
-      <c r="C71" s="18" t="s">
-        <v>251</v>
+        <v>1</v>
+      </c>
+      <c r="C71" s="18">
+        <v>0</v>
       </c>
       <c r="D71" s="13">
         <v>0</v>
       </c>
-      <c r="E71" s="13" t="s">
-        <v>251</v>
+      <c r="E71" s="13">
+        <v>1</v>
       </c>
       <c r="F71" s="18">
-        <v>0</v>
-      </c>
-      <c r="G71" s="18" t="s">
-        <v>251</v>
+        <v>1</v>
+      </c>
+      <c r="G71" s="18">
+        <v>1</v>
       </c>
       <c r="H71" s="13" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="I71" s="13" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="J71" s="18">
         <v>0</v>
@@ -14105,7 +13921,7 @@
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="19" t="s">
-        <v>12</v>
+        <v>113</v>
       </c>
       <c r="B72" s="18">
         <v>0</v>
@@ -14120,16 +13936,16 @@
         <v>0</v>
       </c>
       <c r="F72" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G72" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H72" s="13" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="I72" s="13" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="J72" s="18">
         <v>0</v>
@@ -14142,10 +13958,10 @@
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" s="19" t="s">
-        <v>15</v>
+        <v>141</v>
       </c>
       <c r="B73" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C73" s="18">
         <v>0</v>
@@ -14157,16 +13973,16 @@
         <v>0</v>
       </c>
       <c r="F73" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G73" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H73" s="13" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="I73" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J73" s="18">
         <v>0</v>
@@ -14179,25 +13995,25 @@
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" s="19" t="s">
-        <v>16</v>
+        <v>145</v>
       </c>
       <c r="B74" s="18">
         <v>0</v>
       </c>
       <c r="C74" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D74" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E74" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F74" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G74" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H74" s="13" t="s">
         <v>252</v>
@@ -14216,7 +14032,7 @@
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" s="19" t="s">
-        <v>20</v>
+        <v>154</v>
       </c>
       <c r="B75" s="18">
         <v>0</v>
@@ -14231,16 +14047,16 @@
         <v>0</v>
       </c>
       <c r="F75" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G75" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H75" s="13" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="I75" s="13" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="J75" s="18">
         <v>0</v>
@@ -14253,7 +14069,7 @@
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" s="19" t="s">
-        <v>22</v>
+        <v>160</v>
       </c>
       <c r="B76" s="18">
         <v>0</v>
@@ -14262,10 +14078,10 @@
         <v>0</v>
       </c>
       <c r="D76" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E76" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F76" s="18">
         <v>1</v>
@@ -14290,7 +14106,7 @@
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" s="19" t="s">
-        <v>26</v>
+        <v>168</v>
       </c>
       <c r="B77" s="18">
         <v>0</v>
@@ -14308,13 +14124,13 @@
         <v>1</v>
       </c>
       <c r="G77" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H77" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I77" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J77" s="18">
         <v>0</v>
@@ -14327,7 +14143,7 @@
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" s="19" t="s">
-        <v>27</v>
+        <v>186</v>
       </c>
       <c r="B78" s="18">
         <v>0</v>
@@ -14339,16 +14155,16 @@
         <v>0</v>
       </c>
       <c r="E78" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F78" s="18">
         <v>1</v>
       </c>
       <c r="G78" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H78" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I78" s="13" t="s">
         <v>252</v>
@@ -14364,13 +14180,13 @@
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" s="19" t="s">
-        <v>29</v>
+        <v>208</v>
       </c>
       <c r="B79" s="18">
         <v>1</v>
       </c>
       <c r="C79" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D79" s="13">
         <v>0</v>
@@ -14382,13 +14198,13 @@
         <v>1</v>
       </c>
       <c r="G79" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H79" s="13" t="s">
         <v>252</v>
       </c>
       <c r="I79" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J79" s="18">
         <v>0</v>
@@ -14401,7 +14217,7 @@
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" s="19" t="s">
-        <v>32</v>
+        <v>213</v>
       </c>
       <c r="B80" s="18">
         <v>1</v>
@@ -14419,13 +14235,13 @@
         <v>0</v>
       </c>
       <c r="G80" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H80" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I80" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J80" s="18">
         <v>0</v>
@@ -14438,10 +14254,10 @@
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" s="19" t="s">
-        <v>33</v>
+        <v>224</v>
       </c>
       <c r="B81" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C81" s="18">
         <v>0</v>
@@ -14456,13 +14272,13 @@
         <v>1</v>
       </c>
       <c r="G81" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H81" s="13" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="I81" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J81" s="18">
         <v>0</v>
@@ -14475,31 +14291,31 @@
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" s="19" t="s">
-        <v>34</v>
+        <v>237</v>
       </c>
       <c r="B82" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C82" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D82" s="13">
         <v>0</v>
       </c>
       <c r="E82" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F82" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G82" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H82" s="13" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="I82" s="13" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="J82" s="18">
         <v>0</v>
@@ -14512,10 +14328,10 @@
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" s="19" t="s">
-        <v>38</v>
+        <v>239</v>
       </c>
       <c r="B83" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C83" s="18">
         <v>0</v>
@@ -14530,13 +14346,13 @@
         <v>1</v>
       </c>
       <c r="G83" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H83" s="13" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="I83" s="13" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="J83" s="18">
         <v>0</v>
@@ -14549,31 +14365,31 @@
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" s="19" t="s">
-        <v>37</v>
+        <v>241</v>
       </c>
       <c r="B84" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C84" s="18">
         <v>0</v>
       </c>
       <c r="D84" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E84" s="13">
         <v>0</v>
       </c>
       <c r="F84" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G84" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H84" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I84" s="13" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="J84" s="18">
         <v>0</v>
@@ -14586,44 +14402,50 @@
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" s="19" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="B85" s="18">
         <v>0</v>
       </c>
       <c r="C85" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D85" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E85" s="13">
         <v>1</v>
       </c>
       <c r="F85" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G85" s="18">
         <v>0</v>
       </c>
       <c r="H85" s="13" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="I85" s="13" t="s">
         <v>252</v>
       </c>
       <c r="J85" s="18">
-        <v>0</v>
-      </c>
-      <c r="K85" s="18"/>
-      <c r="L85" s="18"/>
-      <c r="M85" s="18"/>
+        <v>1</v>
+      </c>
+      <c r="K85" s="18">
+        <v>1</v>
+      </c>
+      <c r="L85" s="18">
+        <v>0</v>
+      </c>
+      <c r="M85" s="18">
+        <v>0</v>
+      </c>
       <c r="N85" s="13"/>
       <c r="O85" s="20"/>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" s="19" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="B86" s="18">
         <v>0</v>
@@ -14632,13 +14454,13 @@
         <v>0</v>
       </c>
       <c r="D86" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E86" s="13">
         <v>0</v>
       </c>
       <c r="F86" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G86" s="18">
         <v>0</v>
@@ -14650,35 +14472,41 @@
         <v>252</v>
       </c>
       <c r="J86" s="18">
-        <v>0</v>
-      </c>
-      <c r="K86" s="18"/>
-      <c r="L86" s="18"/>
-      <c r="M86" s="18"/>
+        <v>1</v>
+      </c>
+      <c r="K86" s="18">
+        <v>0</v>
+      </c>
+      <c r="L86" s="18">
+        <v>0</v>
+      </c>
+      <c r="M86" s="18">
+        <v>0</v>
+      </c>
       <c r="N86" s="13"/>
       <c r="O86" s="20"/>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" s="19" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="B87" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C87" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D87" s="13">
         <v>0</v>
       </c>
       <c r="E87" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F87" s="18">
         <v>1</v>
       </c>
       <c r="G87" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H87" s="13" t="s">
         <v>252</v>
@@ -14687,57 +14515,69 @@
         <v>252</v>
       </c>
       <c r="J87" s="18">
-        <v>0</v>
-      </c>
-      <c r="K87" s="18"/>
-      <c r="L87" s="18"/>
-      <c r="M87" s="18"/>
+        <v>1</v>
+      </c>
+      <c r="K87" s="18">
+        <v>1</v>
+      </c>
+      <c r="L87" s="18">
+        <v>1</v>
+      </c>
+      <c r="M87" s="18">
+        <v>0</v>
+      </c>
       <c r="N87" s="13"/>
       <c r="O87" s="20"/>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" s="19" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B88" s="18">
         <v>0</v>
       </c>
-      <c r="C88" s="18" t="s">
-        <v>251</v>
+      <c r="C88" s="18">
+        <v>0</v>
       </c>
       <c r="D88" s="13">
-        <v>0</v>
-      </c>
-      <c r="E88" s="13" t="s">
-        <v>251</v>
+        <v>1</v>
+      </c>
+      <c r="E88" s="13">
+        <v>1</v>
       </c>
       <c r="F88" s="18">
         <v>0</v>
       </c>
-      <c r="G88" s="18" t="s">
-        <v>251</v>
+      <c r="G88" s="18">
+        <v>0</v>
       </c>
       <c r="H88" s="13" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="I88" s="13" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="J88" s="18">
-        <v>0</v>
-      </c>
-      <c r="K88" s="18"/>
-      <c r="L88" s="18"/>
-      <c r="M88" s="18"/>
+        <v>1</v>
+      </c>
+      <c r="K88" s="18">
+        <v>1</v>
+      </c>
+      <c r="L88" s="18">
+        <v>0</v>
+      </c>
+      <c r="M88" s="18">
+        <v>1</v>
+      </c>
       <c r="N88" s="13"/>
       <c r="O88" s="20"/>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" s="19" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="B89" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C89" s="18">
         <v>0</v>
@@ -14746,7 +14586,7 @@
         <v>0</v>
       </c>
       <c r="E89" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F89" s="18">
         <v>1</v>
@@ -14755,60 +14595,72 @@
         <v>0</v>
       </c>
       <c r="H89" s="13" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="I89" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J89" s="18">
-        <v>0</v>
-      </c>
-      <c r="K89" s="18"/>
-      <c r="L89" s="18"/>
-      <c r="M89" s="18"/>
+        <v>1</v>
+      </c>
+      <c r="K89" s="18">
+        <v>0</v>
+      </c>
+      <c r="L89" s="18">
+        <v>0</v>
+      </c>
+      <c r="M89" s="18">
+        <v>0</v>
+      </c>
       <c r="N89" s="13"/>
       <c r="O89" s="20"/>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" s="19" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="B90" s="18">
         <v>0</v>
       </c>
-      <c r="C90" s="18" t="s">
-        <v>251</v>
+      <c r="C90" s="18">
+        <v>0</v>
       </c>
       <c r="D90" s="13">
         <v>0</v>
       </c>
-      <c r="E90" s="13" t="s">
-        <v>251</v>
+      <c r="E90" s="13">
+        <v>0</v>
       </c>
       <c r="F90" s="18">
-        <v>1</v>
-      </c>
-      <c r="G90" s="18" t="s">
-        <v>251</v>
+        <v>0</v>
+      </c>
+      <c r="G90" s="18">
+        <v>0</v>
       </c>
       <c r="H90" s="13" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="I90" s="13" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="J90" s="18">
-        <v>0</v>
-      </c>
-      <c r="K90" s="18"/>
-      <c r="L90" s="18"/>
-      <c r="M90" s="18"/>
+        <v>1</v>
+      </c>
+      <c r="K90" s="18">
+        <v>0</v>
+      </c>
+      <c r="L90" s="18">
+        <v>0</v>
+      </c>
+      <c r="M90" s="18">
+        <v>0</v>
+      </c>
       <c r="N90" s="13"/>
       <c r="O90" s="20"/>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" s="19" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="B91" s="18">
         <v>0</v>
@@ -14823,10 +14675,10 @@
         <v>0</v>
       </c>
       <c r="F91" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G91" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H91" s="13" t="s">
         <v>252</v>
@@ -14835,35 +14687,41 @@
         <v>252</v>
       </c>
       <c r="J91" s="18">
-        <v>0</v>
-      </c>
-      <c r="K91" s="18"/>
-      <c r="L91" s="18"/>
-      <c r="M91" s="18"/>
+        <v>1</v>
+      </c>
+      <c r="K91" s="18">
+        <v>0</v>
+      </c>
+      <c r="L91" s="18">
+        <v>0</v>
+      </c>
+      <c r="M91" s="18">
+        <v>0</v>
+      </c>
       <c r="N91" s="13"/>
       <c r="O91" s="20"/>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" s="19" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="B92" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C92" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D92" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E92" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F92" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G92" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H92" s="13" t="s">
         <v>252</v>
@@ -14872,54 +14730,66 @@
         <v>252</v>
       </c>
       <c r="J92" s="18">
-        <v>0</v>
-      </c>
-      <c r="K92" s="18"/>
-      <c r="L92" s="18"/>
-      <c r="M92" s="18"/>
+        <v>1</v>
+      </c>
+      <c r="K92" s="18">
+        <v>0</v>
+      </c>
+      <c r="L92" s="18">
+        <v>0</v>
+      </c>
+      <c r="M92" s="18">
+        <v>0</v>
+      </c>
       <c r="N92" s="13"/>
       <c r="O92" s="20"/>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" s="19" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="B93" s="18">
-        <v>0</v>
-      </c>
-      <c r="C93" s="18" t="s">
-        <v>251</v>
+        <v>1</v>
+      </c>
+      <c r="C93" s="18">
+        <v>0</v>
       </c>
       <c r="D93" s="13">
         <v>0</v>
       </c>
-      <c r="E93" s="13" t="s">
-        <v>251</v>
+      <c r="E93" s="13">
+        <v>1</v>
       </c>
       <c r="F93" s="18">
-        <v>1</v>
-      </c>
-      <c r="G93" s="18" t="s">
-        <v>251</v>
+        <v>0</v>
+      </c>
+      <c r="G93" s="18">
+        <v>0</v>
       </c>
       <c r="H93" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="I93" s="13" t="s">
         <v>256</v>
       </c>
-      <c r="I93" s="13" t="s">
-        <v>259</v>
-      </c>
       <c r="J93" s="18">
-        <v>0</v>
-      </c>
-      <c r="K93" s="18"/>
-      <c r="L93" s="18"/>
-      <c r="M93" s="18"/>
+        <v>1</v>
+      </c>
+      <c r="K93" s="18">
+        <v>1</v>
+      </c>
+      <c r="L93" s="18">
+        <v>0</v>
+      </c>
+      <c r="M93" s="18">
+        <v>0</v>
+      </c>
       <c r="N93" s="13"/>
       <c r="O93" s="20"/>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" s="19" t="s">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="B94" s="18">
         <v>0</v>
@@ -14946,20 +14816,26 @@
         <v>253</v>
       </c>
       <c r="J94" s="18">
-        <v>0</v>
-      </c>
-      <c r="K94" s="18"/>
-      <c r="L94" s="18"/>
-      <c r="M94" s="18"/>
+        <v>1</v>
+      </c>
+      <c r="K94" s="18">
+        <v>0</v>
+      </c>
+      <c r="L94" s="18">
+        <v>0</v>
+      </c>
+      <c r="M94" s="18">
+        <v>0</v>
+      </c>
       <c r="N94" s="13"/>
       <c r="O94" s="20"/>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" s="19" t="s">
-        <v>52</v>
+        <v>101</v>
       </c>
       <c r="B95" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C95" s="18">
         <v>0</v>
@@ -14977,174 +14853,204 @@
         <v>0</v>
       </c>
       <c r="H95" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I95" s="13" t="s">
         <v>253</v>
       </c>
       <c r="J95" s="18">
-        <v>0</v>
-      </c>
-      <c r="K95" s="18"/>
-      <c r="L95" s="18"/>
-      <c r="M95" s="18"/>
+        <v>1</v>
+      </c>
+      <c r="K95" s="18">
+        <v>0</v>
+      </c>
+      <c r="L95" s="18">
+        <v>0</v>
+      </c>
+      <c r="M95" s="18">
+        <v>0</v>
+      </c>
       <c r="N95" s="13"/>
       <c r="O95" s="20"/>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" s="19" t="s">
-        <v>53</v>
+        <v>124</v>
       </c>
       <c r="B96" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C96" s="18">
         <v>0</v>
       </c>
       <c r="D96" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E96" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F96" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G96" s="18">
         <v>0</v>
       </c>
       <c r="H96" s="13" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="I96" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J96" s="18">
-        <v>0</v>
-      </c>
-      <c r="K96" s="18"/>
-      <c r="L96" s="18"/>
-      <c r="M96" s="18"/>
+        <v>1</v>
+      </c>
+      <c r="K96" s="18">
+        <v>0</v>
+      </c>
+      <c r="L96" s="18">
+        <v>0</v>
+      </c>
+      <c r="M96" s="18">
+        <v>0</v>
+      </c>
       <c r="N96" s="13"/>
       <c r="O96" s="20"/>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" s="19" t="s">
-        <v>54</v>
+        <v>174</v>
       </c>
       <c r="B97" s="18">
         <v>0</v>
       </c>
-      <c r="C97" s="18" t="s">
-        <v>251</v>
+      <c r="C97" s="18">
+        <v>0</v>
       </c>
       <c r="D97" s="13">
         <v>0</v>
       </c>
-      <c r="E97" s="13" t="s">
-        <v>251</v>
+      <c r="E97" s="13">
+        <v>1</v>
       </c>
       <c r="F97" s="18">
-        <v>1</v>
-      </c>
-      <c r="G97" s="18" t="s">
-        <v>251</v>
+        <v>0</v>
+      </c>
+      <c r="G97" s="18">
+        <v>0</v>
       </c>
       <c r="H97" s="13" t="s">
         <v>252</v>
       </c>
       <c r="I97" s="13" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="J97" s="18">
-        <v>0</v>
-      </c>
-      <c r="K97" s="18"/>
-      <c r="L97" s="18"/>
-      <c r="M97" s="18"/>
+        <v>1</v>
+      </c>
+      <c r="K97" s="18">
+        <v>0</v>
+      </c>
+      <c r="L97" s="18">
+        <v>0</v>
+      </c>
+      <c r="M97" s="18">
+        <v>0</v>
+      </c>
       <c r="N97" s="13"/>
       <c r="O97" s="20"/>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" s="19" t="s">
-        <v>55</v>
+        <v>175</v>
       </c>
       <c r="B98" s="18">
-        <v>1</v>
-      </c>
-      <c r="C98" s="18" t="s">
-        <v>251</v>
+        <v>0</v>
+      </c>
+      <c r="C98" s="18">
+        <v>0</v>
       </c>
       <c r="D98" s="13">
         <v>0</v>
       </c>
-      <c r="E98" s="13" t="s">
-        <v>251</v>
+      <c r="E98" s="13">
+        <v>0</v>
       </c>
       <c r="F98" s="18">
         <v>0</v>
       </c>
-      <c r="G98" s="18" t="s">
-        <v>251</v>
+      <c r="G98" s="18">
+        <v>0</v>
       </c>
       <c r="H98" s="13" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="I98" s="13" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="J98" s="18">
-        <v>0</v>
-      </c>
-      <c r="K98" s="18"/>
-      <c r="L98" s="18"/>
-      <c r="M98" s="18"/>
+        <v>1</v>
+      </c>
+      <c r="K98" s="18">
+        <v>0</v>
+      </c>
+      <c r="L98" s="18">
+        <v>0</v>
+      </c>
+      <c r="M98" s="18">
+        <v>0</v>
+      </c>
       <c r="N98" s="13"/>
       <c r="O98" s="20"/>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" s="19" t="s">
-        <v>56</v>
+        <v>183</v>
       </c>
       <c r="B99" s="18">
-        <v>0</v>
-      </c>
-      <c r="C99" s="18" t="s">
-        <v>251</v>
+        <v>1</v>
+      </c>
+      <c r="C99" s="18">
+        <v>0</v>
       </c>
       <c r="D99" s="13">
-        <v>0</v>
-      </c>
-      <c r="E99" s="13" t="s">
-        <v>251</v>
+        <v>1</v>
+      </c>
+      <c r="E99" s="13">
+        <v>1</v>
       </c>
       <c r="F99" s="18">
-        <v>1</v>
-      </c>
-      <c r="G99" s="18" t="s">
-        <v>251</v>
+        <v>0</v>
+      </c>
+      <c r="G99" s="18">
+        <v>0</v>
       </c>
       <c r="H99" s="13" t="s">
         <v>252</v>
       </c>
       <c r="I99" s="13" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="J99" s="18">
-        <v>0</v>
-      </c>
-      <c r="K99" s="18"/>
-      <c r="L99" s="18"/>
-      <c r="M99" s="18"/>
+        <v>1</v>
+      </c>
+      <c r="K99" s="18">
+        <v>1</v>
+      </c>
+      <c r="L99" s="18">
+        <v>0</v>
+      </c>
+      <c r="M99" s="18">
+        <v>0</v>
+      </c>
       <c r="N99" s="13"/>
       <c r="O99" s="20"/>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" s="19" t="s">
-        <v>57</v>
+        <v>189</v>
       </c>
       <c r="B100" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C100" s="18">
         <v>0</v>
@@ -15156,29 +15062,35 @@
         <v>0</v>
       </c>
       <c r="F100" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G100" s="18">
         <v>0</v>
       </c>
       <c r="H100" s="13" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="I100" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J100" s="18">
-        <v>0</v>
-      </c>
-      <c r="K100" s="18"/>
-      <c r="L100" s="18"/>
-      <c r="M100" s="18"/>
+        <v>1</v>
+      </c>
+      <c r="K100" s="18">
+        <v>1</v>
+      </c>
+      <c r="L100" s="18">
+        <v>0</v>
+      </c>
+      <c r="M100" s="18">
+        <v>0</v>
+      </c>
       <c r="N100" s="13"/>
       <c r="O100" s="20"/>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" s="19" t="s">
-        <v>63</v>
+        <v>202</v>
       </c>
       <c r="B101" s="18">
         <v>0</v>
@@ -15193,29 +15105,35 @@
         <v>0</v>
       </c>
       <c r="F101" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G101" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H101" s="13" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="I101" s="13" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="J101" s="18">
-        <v>0</v>
-      </c>
-      <c r="K101" s="18"/>
-      <c r="L101" s="18"/>
-      <c r="M101" s="18"/>
+        <v>1</v>
+      </c>
+      <c r="K101" s="18">
+        <v>1</v>
+      </c>
+      <c r="L101" s="18">
+        <v>0</v>
+      </c>
+      <c r="M101" s="18">
+        <v>0</v>
+      </c>
       <c r="N101" s="13"/>
       <c r="O101" s="20"/>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" s="19" t="s">
-        <v>65</v>
+        <v>205</v>
       </c>
       <c r="B102" s="18">
         <v>0</v>
@@ -15224,81 +15142,93 @@
         <v>0</v>
       </c>
       <c r="D102" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E102" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F102" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G102" s="18">
         <v>0</v>
       </c>
       <c r="H102" s="13" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="I102" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J102" s="18">
-        <v>0</v>
-      </c>
-      <c r="K102" s="18"/>
-      <c r="L102" s="18"/>
-      <c r="M102" s="18"/>
+        <v>1</v>
+      </c>
+      <c r="K102" s="18">
+        <v>1</v>
+      </c>
+      <c r="L102" s="18">
+        <v>0</v>
+      </c>
+      <c r="M102" s="18">
+        <v>0</v>
+      </c>
       <c r="N102" s="13"/>
       <c r="O102" s="20"/>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" s="19" t="s">
-        <v>66</v>
+        <v>206</v>
       </c>
       <c r="B103" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C103" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D103" s="13">
         <v>0</v>
       </c>
       <c r="E103" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F103" s="18">
         <v>0</v>
       </c>
       <c r="G103" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H103" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I103" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J103" s="18">
-        <v>0</v>
-      </c>
-      <c r="K103" s="18"/>
-      <c r="L103" s="18"/>
-      <c r="M103" s="18"/>
+        <v>1</v>
+      </c>
+      <c r="K103" s="18">
+        <v>0</v>
+      </c>
+      <c r="L103" s="18">
+        <v>0</v>
+      </c>
+      <c r="M103" s="18">
+        <v>0</v>
+      </c>
       <c r="N103" s="13"/>
       <c r="O103" s="20"/>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" s="19" t="s">
-        <v>67</v>
+        <v>216</v>
       </c>
       <c r="B104" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C104" s="18">
         <v>0</v>
       </c>
       <c r="D104" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E104" s="13">
         <v>0</v>
@@ -15313,66 +15243,78 @@
         <v>252</v>
       </c>
       <c r="I104" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J104" s="18">
-        <v>0</v>
-      </c>
-      <c r="K104" s="18"/>
-      <c r="L104" s="18"/>
-      <c r="M104" s="18"/>
+        <v>1</v>
+      </c>
+      <c r="K104" s="18">
+        <v>1</v>
+      </c>
+      <c r="L104" s="18">
+        <v>0</v>
+      </c>
+      <c r="M104" s="18">
+        <v>0</v>
+      </c>
       <c r="N104" s="13"/>
       <c r="O104" s="20"/>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" s="19" t="s">
-        <v>68</v>
+        <v>222</v>
       </c>
       <c r="B105" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C105" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D105" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E105" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F105" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G105" s="18">
         <v>0</v>
       </c>
       <c r="H105" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="I105" s="13" t="s">
         <v>253</v>
       </c>
-      <c r="I105" s="13" t="s">
-        <v>252</v>
-      </c>
       <c r="J105" s="18">
-        <v>0</v>
-      </c>
-      <c r="K105" s="18"/>
-      <c r="L105" s="18"/>
-      <c r="M105" s="18"/>
+        <v>1</v>
+      </c>
+      <c r="K105" s="18">
+        <v>0</v>
+      </c>
+      <c r="L105" s="18">
+        <v>0</v>
+      </c>
+      <c r="M105" s="18">
+        <v>0</v>
+      </c>
       <c r="N105" s="13"/>
       <c r="O105" s="20"/>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" s="19" t="s">
-        <v>69</v>
+        <v>225</v>
       </c>
       <c r="B106" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C106" s="18">
         <v>0</v>
       </c>
       <c r="D106" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E106" s="13">
         <v>1</v>
@@ -15390,17 +15332,23 @@
         <v>252</v>
       </c>
       <c r="J106" s="18">
-        <v>0</v>
-      </c>
-      <c r="K106" s="18"/>
-      <c r="L106" s="18"/>
-      <c r="M106" s="18"/>
+        <v>1</v>
+      </c>
+      <c r="K106" s="18">
+        <v>0</v>
+      </c>
+      <c r="L106" s="18">
+        <v>0</v>
+      </c>
+      <c r="M106" s="18">
+        <v>0</v>
+      </c>
       <c r="N106" s="13"/>
       <c r="O106" s="20"/>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107" s="19" t="s">
-        <v>71</v>
+        <v>235</v>
       </c>
       <c r="B107" s="18">
         <v>0</v>
@@ -15415,10 +15363,10 @@
         <v>0</v>
       </c>
       <c r="F107" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G107" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H107" s="13" t="s">
         <v>252</v>
@@ -15427,17 +15375,23 @@
         <v>252</v>
       </c>
       <c r="J107" s="18">
-        <v>0</v>
-      </c>
-      <c r="K107" s="18"/>
-      <c r="L107" s="18"/>
-      <c r="M107" s="18"/>
+        <v>1</v>
+      </c>
+      <c r="K107" s="18">
+        <v>1</v>
+      </c>
+      <c r="L107" s="18">
+        <v>0</v>
+      </c>
+      <c r="M107" s="18">
+        <v>0</v>
+      </c>
       <c r="N107" s="13"/>
       <c r="O107" s="20"/>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108" s="19" t="s">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="B108" s="18">
         <v>0</v>
@@ -15446,7 +15400,7 @@
         <v>0</v>
       </c>
       <c r="D108" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E108" s="13">
         <v>1</v>
@@ -15461,7 +15415,7 @@
         <v>252</v>
       </c>
       <c r="I108" s="13" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="J108" s="18">
         <v>0</v>
@@ -15474,13 +15428,13 @@
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109" s="19" t="s">
-        <v>74</v>
+        <v>29</v>
       </c>
       <c r="B109" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C109" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D109" s="13">
         <v>0</v>
@@ -15492,13 +15446,13 @@
         <v>1</v>
       </c>
       <c r="G109" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H109" s="13" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="I109" s="13" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="J109" s="18">
         <v>0</v>
@@ -15511,22 +15465,22 @@
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110" s="19" t="s">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="B110" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C110" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D110" s="13">
         <v>0</v>
       </c>
       <c r="E110" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F110" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G110" s="18">
         <v>0</v>
@@ -15535,7 +15489,7 @@
         <v>252</v>
       </c>
       <c r="I110" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J110" s="18">
         <v>0</v>
@@ -15548,7 +15502,7 @@
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111" s="19" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="B111" s="18">
         <v>0</v>
@@ -15563,16 +15517,16 @@
         <v>0</v>
       </c>
       <c r="F111" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G111" s="18">
         <v>0</v>
       </c>
       <c r="H111" s="13" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="I111" s="13" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="J111" s="18">
         <v>0</v>
@@ -15585,7 +15539,7 @@
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112" s="19" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B112" s="18">
         <v>0</v>
@@ -15594,19 +15548,19 @@
         <v>0</v>
       </c>
       <c r="D112" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E112" s="13">
         <v>0</v>
       </c>
       <c r="F112" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G112" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H112" s="13" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="I112" s="13" t="s">
         <v>253</v>
@@ -15622,19 +15576,19 @@
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113" s="19" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B113" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C113" s="18">
         <v>0</v>
       </c>
       <c r="D113" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E113" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F113" s="18">
         <v>0</v>
@@ -15643,10 +15597,10 @@
         <v>0</v>
       </c>
       <c r="H113" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I113" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J113" s="18">
         <v>0</v>
@@ -15659,7 +15613,7 @@
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114" s="19" t="s">
-        <v>270</v>
+        <v>72</v>
       </c>
       <c r="B114" s="18">
         <v>0</v>
@@ -15671,7 +15625,7 @@
         <v>0</v>
       </c>
       <c r="E114" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F114" s="18">
         <v>0</v>
@@ -15683,7 +15637,7 @@
         <v>252</v>
       </c>
       <c r="I114" s="13" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="J114" s="18">
         <v>0</v>
@@ -15696,31 +15650,31 @@
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115" s="19" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B115" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C115" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D115" s="13">
         <v>0</v>
       </c>
       <c r="E115" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F115" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G115" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H115" s="13" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="I115" s="13" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="J115" s="18">
         <v>0</v>
@@ -15733,7 +15687,7 @@
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116" s="19" t="s">
-        <v>81</v>
+        <v>270</v>
       </c>
       <c r="B116" s="18">
         <v>0</v>
@@ -15748,7 +15702,7 @@
         <v>0</v>
       </c>
       <c r="F116" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G116" s="18">
         <v>0</v>
@@ -15757,7 +15711,7 @@
         <v>252</v>
       </c>
       <c r="I116" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J116" s="18">
         <v>0</v>
@@ -15770,31 +15724,31 @@
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B117" s="18">
         <v>0</v>
       </c>
-      <c r="C117" s="18" t="s">
-        <v>251</v>
+      <c r="C117" s="18">
+        <v>0</v>
       </c>
       <c r="D117" s="13">
         <v>0</v>
       </c>
-      <c r="E117" s="13" t="s">
-        <v>251</v>
+      <c r="E117" s="13">
+        <v>0</v>
       </c>
       <c r="F117" s="18">
         <v>1</v>
       </c>
-      <c r="G117" s="18" t="s">
-        <v>251</v>
+      <c r="G117" s="18">
+        <v>0</v>
       </c>
       <c r="H117" s="13" t="s">
         <v>252</v>
       </c>
       <c r="I117" s="13" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="J117" s="18">
         <v>0</v>
@@ -15844,7 +15798,7 @@
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119" s="19" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B119" s="18">
         <v>0</v>
@@ -15862,7 +15816,7 @@
         <v>1</v>
       </c>
       <c r="G119" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H119" s="13" t="s">
         <v>252</v>
@@ -15881,7 +15835,7 @@
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120" s="19" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="B120" s="18">
         <v>0</v>
@@ -15896,7 +15850,7 @@
         <v>0</v>
       </c>
       <c r="F120" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G120" s="18">
         <v>0</v>
@@ -15918,28 +15872,28 @@
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A121" s="19" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="B121" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C121" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D121" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E121" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F121" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G121" s="18">
         <v>0</v>
       </c>
       <c r="H121" s="13" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="I121" s="13" t="s">
         <v>252</v>
@@ -15955,10 +15909,10 @@
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A122" s="19" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="B122" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C122" s="18">
         <v>0</v>
@@ -15973,7 +15927,7 @@
         <v>0</v>
       </c>
       <c r="G122" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H122" s="13" t="s">
         <v>252</v>
@@ -15992,31 +15946,31 @@
     </row>
     <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A123" s="19" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="B123" s="18">
         <v>0</v>
       </c>
-      <c r="C123" s="18" t="s">
-        <v>251</v>
+      <c r="C123" s="18">
+        <v>0</v>
       </c>
       <c r="D123" s="13">
         <v>0</v>
       </c>
-      <c r="E123" s="13" t="s">
-        <v>251</v>
+      <c r="E123" s="13">
+        <v>1</v>
       </c>
       <c r="F123" s="18">
-        <v>0</v>
-      </c>
-      <c r="G123" s="18" t="s">
-        <v>251</v>
+        <v>1</v>
+      </c>
+      <c r="G123" s="18">
+        <v>0</v>
       </c>
       <c r="H123" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I123" s="13" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="J123" s="18">
         <v>0</v>
@@ -16029,7 +15983,7 @@
     </row>
     <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A124" s="19" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="B124" s="18">
         <v>0</v>
@@ -16044,10 +15998,10 @@
         <v>0</v>
       </c>
       <c r="F124" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G124" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H124" s="13" t="s">
         <v>252</v>
@@ -16066,31 +16020,31 @@
     </row>
     <row r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A125" s="19" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="B125" s="18">
-        <v>0</v>
-      </c>
-      <c r="C125" s="18" t="s">
-        <v>251</v>
+        <v>1</v>
+      </c>
+      <c r="C125" s="18">
+        <v>0</v>
       </c>
       <c r="D125" s="13">
         <v>0</v>
       </c>
-      <c r="E125" s="13" t="s">
-        <v>251</v>
+      <c r="E125" s="13">
+        <v>0</v>
       </c>
       <c r="F125" s="18">
         <v>1</v>
       </c>
-      <c r="G125" s="18" t="s">
-        <v>251</v>
+      <c r="G125" s="18">
+        <v>0</v>
       </c>
       <c r="H125" s="13" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="I125" s="13" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="J125" s="18">
         <v>0</v>
@@ -16103,31 +16057,31 @@
     </row>
     <row r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A126" s="19" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="B126" s="18">
         <v>0</v>
       </c>
-      <c r="C126" s="18" t="s">
-        <v>251</v>
+      <c r="C126" s="18">
+        <v>0</v>
       </c>
       <c r="D126" s="13">
         <v>0</v>
       </c>
-      <c r="E126" s="13" t="s">
-        <v>251</v>
+      <c r="E126" s="13">
+        <v>1</v>
       </c>
       <c r="F126" s="18">
-        <v>0</v>
-      </c>
-      <c r="G126" s="18" t="s">
-        <v>251</v>
+        <v>1</v>
+      </c>
+      <c r="G126" s="18">
+        <v>0</v>
       </c>
       <c r="H126" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I126" s="13" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="J126" s="18">
         <v>0</v>
@@ -16140,7 +16094,7 @@
     </row>
     <row r="127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A127" s="19" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
       <c r="B127" s="18">
         <v>0</v>
@@ -16149,10 +16103,10 @@
         <v>0</v>
       </c>
       <c r="D127" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E127" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F127" s="18">
         <v>0</v>
@@ -16177,31 +16131,31 @@
     </row>
     <row r="128" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A128" s="19" t="s">
-        <v>94</v>
+        <v>126</v>
       </c>
       <c r="B128" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C128" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D128" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E128" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F128" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G128" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H128" s="13" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="I128" s="13" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="J128" s="18">
         <v>0</v>
@@ -16214,7 +16168,7 @@
     </row>
     <row r="129" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A129" s="19" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="B129" s="18">
         <v>0</v>
@@ -16229,13 +16183,13 @@
         <v>0</v>
       </c>
       <c r="F129" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G129" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H129" s="13" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="I129" s="13" t="s">
         <v>252</v>
@@ -16251,31 +16205,31 @@
     </row>
     <row r="130" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A130" s="19" t="s">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="B130" s="18">
-        <v>0</v>
-      </c>
-      <c r="C130" s="18" t="s">
-        <v>251</v>
+        <v>1</v>
+      </c>
+      <c r="C130" s="18">
+        <v>0</v>
       </c>
       <c r="D130" s="13">
         <v>0</v>
       </c>
-      <c r="E130" s="13" t="s">
-        <v>251</v>
+      <c r="E130" s="13">
+        <v>0</v>
       </c>
       <c r="F130" s="18">
         <v>1</v>
       </c>
-      <c r="G130" s="18" t="s">
-        <v>251</v>
+      <c r="G130" s="18">
+        <v>0</v>
       </c>
       <c r="H130" s="13" t="s">
         <v>252</v>
       </c>
       <c r="I130" s="13" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="J130" s="18">
         <v>0</v>
@@ -16288,19 +16242,19 @@
     </row>
     <row r="131" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A131" s="19" t="s">
-        <v>97</v>
+        <v>135</v>
       </c>
       <c r="B131" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C131" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D131" s="13">
         <v>1</v>
       </c>
       <c r="E131" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F131" s="18">
         <v>0</v>
@@ -16312,7 +16266,7 @@
         <v>252</v>
       </c>
       <c r="I131" s="13" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="J131" s="18">
         <v>0</v>
@@ -16325,31 +16279,31 @@
     </row>
     <row r="132" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A132" s="19" t="s">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="B132" s="18">
-        <v>0</v>
-      </c>
-      <c r="C132" s="18" t="s">
-        <v>251</v>
+        <v>1</v>
+      </c>
+      <c r="C132" s="18">
+        <v>0</v>
       </c>
       <c r="D132" s="13">
-        <v>0</v>
-      </c>
-      <c r="E132" s="13" t="s">
-        <v>251</v>
+        <v>1</v>
+      </c>
+      <c r="E132" s="13">
+        <v>0</v>
       </c>
       <c r="F132" s="18">
-        <v>1</v>
-      </c>
-      <c r="G132" s="18" t="s">
-        <v>251</v>
+        <v>0</v>
+      </c>
+      <c r="G132" s="18">
+        <v>0</v>
       </c>
       <c r="H132" s="13" t="s">
         <v>252</v>
       </c>
       <c r="I132" s="13" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="J132" s="18">
         <v>0</v>
@@ -16362,7 +16316,7 @@
     </row>
     <row r="133" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A133" s="19" t="s">
-        <v>99</v>
+        <v>147</v>
       </c>
       <c r="B133" s="18">
         <v>0</v>
@@ -16371,19 +16325,19 @@
         <v>0</v>
       </c>
       <c r="D133" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E133" s="13">
         <v>1</v>
       </c>
       <c r="F133" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G133" s="18">
         <v>0</v>
       </c>
       <c r="H133" s="13" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="I133" s="13" t="s">
         <v>252</v>
@@ -16399,7 +16353,7 @@
     </row>
     <row r="134" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A134" s="19" t="s">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="B134" s="18">
         <v>0</v>
@@ -16436,28 +16390,28 @@
     </row>
     <row r="135" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A135" s="19" t="s">
-        <v>102</v>
+        <v>151</v>
       </c>
       <c r="B135" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C135" s="18">
         <v>0</v>
       </c>
       <c r="D135" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E135" s="13">
         <v>1</v>
       </c>
       <c r="F135" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G135" s="18">
         <v>0</v>
       </c>
       <c r="H135" s="13" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="I135" s="13" t="s">
         <v>252</v>
@@ -16473,7 +16427,7 @@
     </row>
     <row r="136" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A136" s="19" t="s">
-        <v>103</v>
+        <v>152</v>
       </c>
       <c r="B136" s="18">
         <v>0</v>
@@ -16494,10 +16448,10 @@
         <v>0</v>
       </c>
       <c r="H136" s="13" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="I136" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J136" s="18">
         <v>0</v>
@@ -16510,7 +16464,7 @@
     </row>
     <row r="137" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A137" s="19" t="s">
-        <v>105</v>
+        <v>156</v>
       </c>
       <c r="B137" s="18">
         <v>0</v>
@@ -16522,19 +16476,19 @@
         <v>0</v>
       </c>
       <c r="E137" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F137" s="18">
         <v>1</v>
       </c>
       <c r="G137" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H137" s="13" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="I137" s="13" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="J137" s="18">
         <v>0</v>
@@ -16547,7 +16501,7 @@
     </row>
     <row r="138" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A138" s="19" t="s">
-        <v>107</v>
+        <v>161</v>
       </c>
       <c r="B138" s="18">
         <v>0</v>
@@ -16562,16 +16516,16 @@
         <v>0</v>
       </c>
       <c r="F138" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G138" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H138" s="13" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="I138" s="13" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="J138" s="18">
         <v>0</v>
@@ -16584,7 +16538,7 @@
     </row>
     <row r="139" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A139" s="19" t="s">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="B139" s="18">
         <v>0</v>
@@ -16596,7 +16550,7 @@
         <v>0</v>
       </c>
       <c r="E139" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F139" s="18">
         <v>1</v>
@@ -16621,7 +16575,7 @@
     </row>
     <row r="140" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A140" s="19" t="s">
-        <v>109</v>
+        <v>163</v>
       </c>
       <c r="B140" s="18">
         <v>0</v>
@@ -16630,16 +16584,16 @@
         <v>0</v>
       </c>
       <c r="D140" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E140" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F140" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G140" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H140" s="13" t="s">
         <v>252</v>
@@ -16658,7 +16612,7 @@
     </row>
     <row r="141" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A141" s="19" t="s">
-        <v>110</v>
+        <v>167</v>
       </c>
       <c r="B141" s="18">
         <v>0</v>
@@ -16667,16 +16621,16 @@
         <v>0</v>
       </c>
       <c r="D141" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E141" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F141" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G141" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H141" s="13" t="s">
         <v>252</v>
@@ -16695,7 +16649,7 @@
     </row>
     <row r="142" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A142" s="19" t="s">
-        <v>111</v>
+        <v>181</v>
       </c>
       <c r="B142" s="18">
         <v>0</v>
@@ -16710,10 +16664,10 @@
         <v>0</v>
       </c>
       <c r="F142" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G142" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H142" s="13" t="s">
         <v>252</v>
@@ -16732,10 +16686,10 @@
     </row>
     <row r="143" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A143" s="19" t="s">
-        <v>112</v>
+        <v>182</v>
       </c>
       <c r="B143" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C143" s="18">
         <v>0</v>
@@ -16744,13 +16698,13 @@
         <v>0</v>
       </c>
       <c r="E143" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F143" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G143" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H143" s="13" t="s">
         <v>252</v>
@@ -16769,7 +16723,7 @@
     </row>
     <row r="144" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A144" s="19" t="s">
-        <v>113</v>
+        <v>188</v>
       </c>
       <c r="B144" s="18">
         <v>0</v>
@@ -16781,13 +16735,13 @@
         <v>0</v>
       </c>
       <c r="E144" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F144" s="18">
         <v>1</v>
       </c>
       <c r="G144" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H144" s="13" t="s">
         <v>252</v>
@@ -16806,7 +16760,7 @@
     </row>
     <row r="145" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A145" s="19" t="s">
-        <v>114</v>
+        <v>191</v>
       </c>
       <c r="B145" s="18">
         <v>0</v>
@@ -16843,7 +16797,7 @@
     </row>
     <row r="146" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A146" s="19" t="s">
-        <v>115</v>
+        <v>193</v>
       </c>
       <c r="B146" s="18">
         <v>0</v>
@@ -16855,7 +16809,7 @@
         <v>0</v>
       </c>
       <c r="E146" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F146" s="18">
         <v>1</v>
@@ -16864,7 +16818,7 @@
         <v>0</v>
       </c>
       <c r="H146" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I146" s="13" t="s">
         <v>252</v>
@@ -16880,10 +16834,10 @@
     </row>
     <row r="147" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A147" s="19" t="s">
-        <v>117</v>
+        <v>194</v>
       </c>
       <c r="B147" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C147" s="18">
         <v>0</v>
@@ -16901,7 +16855,7 @@
         <v>0</v>
       </c>
       <c r="H147" s="13" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="I147" s="13" t="s">
         <v>253</v>
@@ -16917,10 +16871,10 @@
     </row>
     <row r="148" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A148" s="19" t="s">
-        <v>118</v>
+        <v>195</v>
       </c>
       <c r="B148" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C148" s="18">
         <v>0</v>
@@ -16941,7 +16895,7 @@
         <v>252</v>
       </c>
       <c r="I148" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J148" s="18">
         <v>0</v>
@@ -16954,7 +16908,7 @@
     </row>
     <row r="149" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A149" s="19" t="s">
-        <v>119</v>
+        <v>203</v>
       </c>
       <c r="B149" s="18">
         <v>0</v>
@@ -16966,10 +16920,10 @@
         <v>0</v>
       </c>
       <c r="E149" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F149" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G149" s="18">
         <v>0</v>
@@ -16978,7 +16932,7 @@
         <v>252</v>
       </c>
       <c r="I149" s="13" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="J149" s="18">
         <v>0</v>
@@ -16991,13 +16945,13 @@
     </row>
     <row r="150" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A150" s="19" t="s">
-        <v>120</v>
+        <v>212</v>
       </c>
       <c r="B150" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C150" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D150" s="13">
         <v>0</v>
@@ -17009,13 +16963,13 @@
         <v>1</v>
       </c>
       <c r="G150" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H150" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I150" s="13" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="J150" s="18">
         <v>0</v>
@@ -17028,7 +16982,7 @@
     </row>
     <row r="151" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A151" s="19" t="s">
-        <v>121</v>
+        <v>214</v>
       </c>
       <c r="B151" s="18">
         <v>0</v>
@@ -17037,13 +16991,13 @@
         <v>0</v>
       </c>
       <c r="D151" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E151" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F151" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G151" s="18">
         <v>0</v>
@@ -17065,7 +17019,7 @@
     </row>
     <row r="152" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A152" s="19" t="s">
-        <v>122</v>
+        <v>227</v>
       </c>
       <c r="B152" s="18">
         <v>0</v>
@@ -17074,19 +17028,19 @@
         <v>0</v>
       </c>
       <c r="D152" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E152" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F152" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G152" s="18">
         <v>0</v>
       </c>
       <c r="H152" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I152" s="13" t="s">
         <v>252</v>
@@ -17102,7 +17056,7 @@
     </row>
     <row r="153" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A153" s="19" t="s">
-        <v>123</v>
+        <v>229</v>
       </c>
       <c r="B153" s="18">
         <v>0</v>
@@ -17117,16 +17071,16 @@
         <v>0</v>
       </c>
       <c r="F153" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G153" s="18">
         <v>0</v>
       </c>
       <c r="H153" s="13" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="I153" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J153" s="18">
         <v>0</v>
@@ -17139,7 +17093,7 @@
     </row>
     <row r="154" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A154" s="19" t="s">
-        <v>125</v>
+        <v>230</v>
       </c>
       <c r="B154" s="18">
         <v>0</v>
@@ -17154,16 +17108,16 @@
         <v>0</v>
       </c>
       <c r="F154" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G154" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H154" s="13" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="I154" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J154" s="18">
         <v>0</v>
@@ -17176,22 +17130,22 @@
     </row>
     <row r="155" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A155" s="19" t="s">
-        <v>126</v>
+        <v>232</v>
       </c>
       <c r="B155" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C155" s="18">
         <v>0</v>
       </c>
       <c r="D155" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E155" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F155" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G155" s="18">
         <v>0</v>
@@ -17213,7 +17167,7 @@
     </row>
     <row r="156" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A156" s="19" t="s">
-        <v>127</v>
+        <v>233</v>
       </c>
       <c r="B156" s="18">
         <v>0</v>
@@ -17225,7 +17179,7 @@
         <v>0</v>
       </c>
       <c r="E156" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F156" s="18">
         <v>0</v>
@@ -17250,10 +17204,10 @@
     </row>
     <row r="157" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A157" s="19" t="s">
-        <v>128</v>
+        <v>238</v>
       </c>
       <c r="B157" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C157" s="18">
         <v>0</v>
@@ -17265,7 +17219,7 @@
         <v>0</v>
       </c>
       <c r="F157" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G157" s="18">
         <v>0</v>
@@ -17287,31 +17241,31 @@
     </row>
     <row r="158" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A158" s="19" t="s">
-        <v>129</v>
+        <v>11</v>
       </c>
       <c r="B158" s="18">
         <v>0</v>
       </c>
-      <c r="C158" s="18">
-        <v>0</v>
+      <c r="C158" s="18" t="s">
+        <v>251</v>
       </c>
       <c r="D158" s="13">
         <v>0</v>
       </c>
-      <c r="E158" s="13">
-        <v>1</v>
+      <c r="E158" s="13" t="s">
+        <v>251</v>
       </c>
       <c r="F158" s="18">
-        <v>1</v>
-      </c>
-      <c r="G158" s="18">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="G158" s="18" t="s">
+        <v>251</v>
       </c>
       <c r="H158" s="13" t="s">
         <v>256</v>
       </c>
       <c r="I158" s="13" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="J158" s="18">
         <v>0</v>
@@ -17324,31 +17278,31 @@
     </row>
     <row r="159" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A159" s="19" t="s">
-        <v>130</v>
+        <v>43</v>
       </c>
       <c r="B159" s="18">
         <v>0</v>
       </c>
-      <c r="C159" s="18">
-        <v>0</v>
+      <c r="C159" s="18" t="s">
+        <v>251</v>
       </c>
       <c r="D159" s="13">
         <v>0</v>
       </c>
-      <c r="E159" s="13">
-        <v>1</v>
+      <c r="E159" s="13" t="s">
+        <v>251</v>
       </c>
       <c r="F159" s="18">
-        <v>1</v>
-      </c>
-      <c r="G159" s="18">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="G159" s="18" t="s">
+        <v>251</v>
       </c>
       <c r="H159" s="13" t="s">
         <v>256</v>
       </c>
       <c r="I159" s="13" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="J159" s="18">
         <v>0</v>
@@ -17361,31 +17315,31 @@
     </row>
     <row r="160" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A160" s="19" t="s">
-        <v>131</v>
+        <v>46</v>
       </c>
       <c r="B160" s="18">
-        <v>1</v>
-      </c>
-      <c r="C160" s="18">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="C160" s="18" t="s">
+        <v>251</v>
       </c>
       <c r="D160" s="13">
-        <v>1</v>
-      </c>
-      <c r="E160" s="13">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E160" s="13" t="s">
+        <v>251</v>
       </c>
       <c r="F160" s="18">
-        <v>0</v>
-      </c>
-      <c r="G160" s="18">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G160" s="18" t="s">
+        <v>251</v>
       </c>
       <c r="H160" s="13" t="s">
         <v>256</v>
       </c>
       <c r="I160" s="13" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="J160" s="18">
         <v>0</v>
@@ -17398,7 +17352,7 @@
     </row>
     <row r="161" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A161" s="19" t="s">
-        <v>133</v>
+        <v>50</v>
       </c>
       <c r="B161" s="18">
         <v>0</v>
@@ -17413,13 +17367,13 @@
         <v>251</v>
       </c>
       <c r="F161" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G161" s="18" t="s">
         <v>251</v>
       </c>
       <c r="H161" s="13" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="I161" s="13" t="s">
         <v>259</v>
@@ -17435,31 +17389,31 @@
     </row>
     <row r="162" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A162" s="19" t="s">
-        <v>134</v>
+        <v>55</v>
       </c>
       <c r="B162" s="18">
-        <v>0</v>
-      </c>
-      <c r="C162" s="18">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="C162" s="18" t="s">
+        <v>251</v>
       </c>
       <c r="D162" s="13">
         <v>0</v>
       </c>
-      <c r="E162" s="13">
-        <v>1</v>
+      <c r="E162" s="13" t="s">
+        <v>251</v>
       </c>
       <c r="F162" s="18">
-        <v>1</v>
-      </c>
-      <c r="G162" s="18">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="G162" s="18" t="s">
+        <v>251</v>
       </c>
       <c r="H162" s="13" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="I162" s="13" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="J162" s="18">
         <v>0</v>
@@ -17472,31 +17426,31 @@
     </row>
     <row r="163" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A163" s="19" t="s">
-        <v>135</v>
+        <v>90</v>
       </c>
       <c r="B163" s="18">
         <v>0</v>
       </c>
-      <c r="C163" s="18">
-        <v>0</v>
+      <c r="C163" s="18" t="s">
+        <v>251</v>
       </c>
       <c r="D163" s="13">
-        <v>1</v>
-      </c>
-      <c r="E163" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E163" s="13" t="s">
+        <v>251</v>
       </c>
       <c r="F163" s="18">
-        <v>0</v>
-      </c>
-      <c r="G163" s="18">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G163" s="18" t="s">
+        <v>251</v>
       </c>
       <c r="H163" s="13" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="I163" s="13" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="J163" s="18">
         <v>0</v>
@@ -17509,31 +17463,31 @@
     </row>
     <row r="164" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A164" s="19" t="s">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="B164" s="18">
-        <v>1</v>
-      </c>
-      <c r="C164" s="18">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="C164" s="18" t="s">
+        <v>251</v>
       </c>
       <c r="D164" s="13">
-        <v>1</v>
-      </c>
-      <c r="E164" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E164" s="13" t="s">
+        <v>251</v>
       </c>
       <c r="F164" s="18">
-        <v>0</v>
-      </c>
-      <c r="G164" s="18">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G164" s="18" t="s">
+        <v>251</v>
       </c>
       <c r="H164" s="13" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="I164" s="13" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="J164" s="18">
         <v>0</v>
@@ -17546,7 +17500,7 @@
     </row>
     <row r="165" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A165" s="19" t="s">
-        <v>139</v>
+        <v>178</v>
       </c>
       <c r="B165" s="18">
         <v>0</v>
@@ -17561,13 +17515,13 @@
         <v>251</v>
       </c>
       <c r="F165" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G165" s="18" t="s">
         <v>251</v>
       </c>
       <c r="H165" s="13" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="I165" s="13" t="s">
         <v>259</v>
@@ -17583,31 +17537,31 @@
     </row>
     <row r="166" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A166" s="19" t="s">
-        <v>141</v>
+        <v>198</v>
       </c>
       <c r="B166" s="18">
-        <v>1</v>
-      </c>
-      <c r="C166" s="18">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="C166" s="18" t="s">
+        <v>251</v>
       </c>
       <c r="D166" s="13">
         <v>0</v>
       </c>
-      <c r="E166" s="13">
-        <v>0</v>
+      <c r="E166" s="13" t="s">
+        <v>251</v>
       </c>
       <c r="F166" s="18">
         <v>1</v>
       </c>
-      <c r="G166" s="18">
-        <v>1</v>
+      <c r="G166" s="18" t="s">
+        <v>251</v>
       </c>
       <c r="H166" s="13" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="I166" s="13" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="J166" s="18">
         <v>0</v>
@@ -17620,31 +17574,31 @@
     </row>
     <row r="167" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A167" s="19" t="s">
-        <v>142</v>
+        <v>221</v>
       </c>
       <c r="B167" s="18">
         <v>0</v>
       </c>
-      <c r="C167" s="18">
-        <v>0</v>
+      <c r="C167" s="18" t="s">
+        <v>251</v>
       </c>
       <c r="D167" s="13">
         <v>0</v>
       </c>
-      <c r="E167" s="13">
-        <v>0</v>
+      <c r="E167" s="13" t="s">
+        <v>251</v>
       </c>
       <c r="F167" s="18">
         <v>1</v>
       </c>
-      <c r="G167" s="18">
-        <v>1</v>
+      <c r="G167" s="18" t="s">
+        <v>251</v>
       </c>
       <c r="H167" s="13" t="s">
         <v>256</v>
       </c>
       <c r="I167" s="13" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="J167" s="18">
         <v>0</v>
@@ -17657,31 +17611,31 @@
     </row>
     <row r="168" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A168" s="19" t="s">
-        <v>143</v>
+        <v>242</v>
       </c>
       <c r="B168" s="18">
         <v>0</v>
       </c>
-      <c r="C168" s="18">
-        <v>0</v>
+      <c r="C168" s="18" t="s">
+        <v>251</v>
       </c>
       <c r="D168" s="13">
         <v>0</v>
       </c>
-      <c r="E168" s="13">
-        <v>0</v>
+      <c r="E168" s="13" t="s">
+        <v>251</v>
       </c>
       <c r="F168" s="18">
         <v>1</v>
       </c>
-      <c r="G168" s="18">
-        <v>1</v>
+      <c r="G168" s="18" t="s">
+        <v>251</v>
       </c>
       <c r="H168" s="13" t="s">
         <v>256</v>
       </c>
       <c r="I168" s="13" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="J168" s="18">
         <v>0</v>
@@ -17694,81 +17648,93 @@
     </row>
     <row r="169" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A169" s="19" t="s">
-        <v>145</v>
+        <v>24</v>
       </c>
       <c r="B169" s="18">
         <v>0</v>
       </c>
       <c r="C169" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D169" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E169" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F169" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G169" s="18">
         <v>1</v>
       </c>
       <c r="H169" s="13" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="I169" s="13" t="s">
         <v>252</v>
       </c>
       <c r="J169" s="18">
-        <v>0</v>
-      </c>
-      <c r="K169" s="18"/>
-      <c r="L169" s="18"/>
-      <c r="M169" s="18"/>
+        <v>1</v>
+      </c>
+      <c r="K169" s="18">
+        <v>0</v>
+      </c>
+      <c r="L169" s="18">
+        <v>0</v>
+      </c>
+      <c r="M169" s="18">
+        <v>1</v>
+      </c>
       <c r="N169" s="13"/>
       <c r="O169" s="20"/>
     </row>
     <row r="170" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A170" s="19" t="s">
-        <v>146</v>
+        <v>42</v>
       </c>
       <c r="B170" s="18">
         <v>0</v>
       </c>
       <c r="C170" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D170" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E170" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F170" s="18">
         <v>0</v>
       </c>
       <c r="G170" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H170" s="13" t="s">
         <v>256</v>
       </c>
       <c r="I170" s="13" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="J170" s="18">
-        <v>0</v>
-      </c>
-      <c r="K170" s="18"/>
-      <c r="L170" s="18"/>
-      <c r="M170" s="18"/>
+        <v>1</v>
+      </c>
+      <c r="K170" s="18">
+        <v>1</v>
+      </c>
+      <c r="L170" s="18">
+        <v>0</v>
+      </c>
+      <c r="M170" s="18">
+        <v>1</v>
+      </c>
       <c r="N170" s="13"/>
       <c r="O170" s="20"/>
     </row>
     <row r="171" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A171" s="19" t="s">
-        <v>147</v>
+        <v>44</v>
       </c>
       <c r="B171" s="18">
         <v>0</v>
@@ -17777,35 +17743,41 @@
         <v>0</v>
       </c>
       <c r="D171" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E171" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F171" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G171" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H171" s="13" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="I171" s="13" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="J171" s="18">
-        <v>0</v>
-      </c>
-      <c r="K171" s="18"/>
-      <c r="L171" s="18"/>
-      <c r="M171" s="18"/>
+        <v>1</v>
+      </c>
+      <c r="K171" s="18">
+        <v>0</v>
+      </c>
+      <c r="L171" s="18">
+        <v>0</v>
+      </c>
+      <c r="M171" s="18">
+        <v>0</v>
+      </c>
       <c r="N171" s="13"/>
       <c r="O171" s="20"/>
     </row>
     <row r="172" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A172" s="19" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="B172" s="18">
         <v>0</v>
@@ -17817,35 +17789,41 @@
         <v>0</v>
       </c>
       <c r="E172" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F172" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G172" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H172" s="13" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="I172" s="13" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="J172" s="18">
-        <v>0</v>
-      </c>
-      <c r="K172" s="18"/>
-      <c r="L172" s="18"/>
-      <c r="M172" s="18"/>
+        <v>1</v>
+      </c>
+      <c r="K172" s="18">
+        <v>1</v>
+      </c>
+      <c r="L172" s="18">
+        <v>0</v>
+      </c>
+      <c r="M172" s="18">
+        <v>0</v>
+      </c>
       <c r="N172" s="13"/>
       <c r="O172" s="20"/>
     </row>
     <row r="173" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A173" s="19" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="B173" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C173" s="18">
         <v>0</v>
@@ -17857,66 +17835,78 @@
         <v>0</v>
       </c>
       <c r="F173" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G173" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H173" s="13" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="I173" s="13" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="J173" s="18">
-        <v>0</v>
-      </c>
-      <c r="K173" s="18"/>
-      <c r="L173" s="18"/>
-      <c r="M173" s="18"/>
+        <v>1</v>
+      </c>
+      <c r="K173" s="18">
+        <v>1</v>
+      </c>
+      <c r="L173" s="18">
+        <v>0</v>
+      </c>
+      <c r="M173" s="18">
+        <v>0</v>
+      </c>
       <c r="N173" s="13"/>
       <c r="O173" s="20"/>
     </row>
     <row r="174" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A174" s="19" t="s">
-        <v>151</v>
+        <v>185</v>
       </c>
       <c r="B174" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C174" s="18">
         <v>0</v>
       </c>
       <c r="D174" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E174" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F174" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G174" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H174" s="13" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="I174" s="13" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="J174" s="18">
-        <v>0</v>
-      </c>
-      <c r="K174" s="18"/>
-      <c r="L174" s="18"/>
-      <c r="M174" s="18"/>
+        <v>1</v>
+      </c>
+      <c r="K174" s="18">
+        <v>0</v>
+      </c>
+      <c r="L174" s="18">
+        <v>0</v>
+      </c>
+      <c r="M174" s="18">
+        <v>0</v>
+      </c>
       <c r="N174" s="13"/>
       <c r="O174" s="20"/>
     </row>
     <row r="175" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A175" s="19" t="s">
-        <v>152</v>
+        <v>63</v>
       </c>
       <c r="B175" s="18">
         <v>0</v>
@@ -17934,13 +17924,13 @@
         <v>1</v>
       </c>
       <c r="G175" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H175" s="13" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="I175" s="13" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="J175" s="18">
         <v>0</v>
@@ -17953,7 +17943,7 @@
     </row>
     <row r="176" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A176" s="19" t="s">
-        <v>153</v>
+        <v>74</v>
       </c>
       <c r="B176" s="18">
         <v>0</v>
@@ -17971,13 +17961,13 @@
         <v>1</v>
       </c>
       <c r="G176" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H176" s="13" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="I176" s="13" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="J176" s="18">
         <v>0</v>
@@ -17990,7 +17980,7 @@
     </row>
     <row r="177" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A177" s="19" t="s">
-        <v>154</v>
+        <v>78</v>
       </c>
       <c r="B177" s="18">
         <v>0</v>
@@ -18011,10 +18001,10 @@
         <v>1</v>
       </c>
       <c r="H177" s="13" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="I177" s="13" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="J177" s="18">
         <v>0</v>
@@ -18027,7 +18017,7 @@
     </row>
     <row r="178" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A178" s="19" t="s">
-        <v>155</v>
+        <v>80</v>
       </c>
       <c r="B178" s="18">
         <v>0</v>
@@ -18045,13 +18035,13 @@
         <v>1</v>
       </c>
       <c r="G178" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H178" s="13" t="s">
         <v>256</v>
       </c>
       <c r="I178" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J178" s="18">
         <v>0</v>
@@ -18064,31 +18054,31 @@
     </row>
     <row r="179" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A179" s="19" t="s">
-        <v>156</v>
+        <v>94</v>
       </c>
       <c r="B179" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C179" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D179" s="13">
         <v>0</v>
       </c>
       <c r="E179" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F179" s="18">
         <v>1</v>
       </c>
       <c r="G179" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H179" s="13" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="I179" s="13" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="J179" s="18">
         <v>0</v>
@@ -18101,7 +18091,7 @@
     </row>
     <row r="180" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A180" s="19" t="s">
-        <v>157</v>
+        <v>95</v>
       </c>
       <c r="B180" s="18">
         <v>0</v>
@@ -18125,7 +18115,7 @@
         <v>256</v>
       </c>
       <c r="I180" s="13" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="J180" s="18">
         <v>0</v>
@@ -18138,31 +18128,31 @@
     </row>
     <row r="181" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A181" s="19" t="s">
-        <v>159</v>
+        <v>105</v>
       </c>
       <c r="B181" s="18">
         <v>0</v>
       </c>
-      <c r="C181" s="18" t="s">
-        <v>251</v>
+      <c r="C181" s="18">
+        <v>0</v>
       </c>
       <c r="D181" s="13">
         <v>0</v>
       </c>
-      <c r="E181" s="13" t="s">
-        <v>251</v>
+      <c r="E181" s="13">
+        <v>0</v>
       </c>
       <c r="F181" s="18">
         <v>1</v>
       </c>
-      <c r="G181" s="18" t="s">
-        <v>251</v>
+      <c r="G181" s="18">
+        <v>1</v>
       </c>
       <c r="H181" s="13" t="s">
         <v>256</v>
       </c>
       <c r="I181" s="13" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="J181" s="18">
         <v>0</v>
@@ -18175,7 +18165,7 @@
     </row>
     <row r="182" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A182" s="19" t="s">
-        <v>160</v>
+        <v>107</v>
       </c>
       <c r="B182" s="18">
         <v>0</v>
@@ -18196,10 +18186,10 @@
         <v>1</v>
       </c>
       <c r="H182" s="13" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="I182" s="13" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="J182" s="18">
         <v>0</v>
@@ -18212,7 +18202,7 @@
     </row>
     <row r="183" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A183" s="19" t="s">
-        <v>161</v>
+        <v>125</v>
       </c>
       <c r="B183" s="18">
         <v>0</v>
@@ -18227,16 +18217,16 @@
         <v>0</v>
       </c>
       <c r="F183" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G183" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H183" s="13" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="I183" s="13" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="J183" s="18">
         <v>0</v>
@@ -18249,7 +18239,7 @@
     </row>
     <row r="184" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A184" s="19" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="B184" s="18">
         <v>0</v>
@@ -18267,13 +18257,13 @@
         <v>1</v>
       </c>
       <c r="G184" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H184" s="13" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="I184" s="13" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="J184" s="18">
         <v>0</v>
@@ -18286,7 +18276,7 @@
     </row>
     <row r="185" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A185" s="19" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="B185" s="18">
         <v>0</v>
@@ -18295,22 +18285,22 @@
         <v>0</v>
       </c>
       <c r="D185" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E185" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F185" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G185" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H185" s="13" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="I185" s="13" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="J185" s="18">
         <v>0</v>
@@ -18323,7 +18313,7 @@
     </row>
     <row r="186" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A186" s="19" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="B186" s="18">
         <v>0</v>
@@ -18344,7 +18334,7 @@
         <v>1</v>
       </c>
       <c r="H186" s="13" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="I186" s="13" t="s">
         <v>256</v>
@@ -18360,31 +18350,31 @@
     </row>
     <row r="187" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A187" s="19" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="B187" s="18">
-        <v>0</v>
-      </c>
-      <c r="C187" s="18" t="s">
-        <v>251</v>
+        <v>1</v>
+      </c>
+      <c r="C187" s="18">
+        <v>0</v>
       </c>
       <c r="D187" s="13">
         <v>0</v>
       </c>
-      <c r="E187" s="13" t="s">
-        <v>251</v>
+      <c r="E187" s="13">
+        <v>0</v>
       </c>
       <c r="F187" s="18">
         <v>1</v>
       </c>
-      <c r="G187" s="18" t="s">
-        <v>251</v>
+      <c r="G187" s="18">
+        <v>1</v>
       </c>
       <c r="H187" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="I187" s="13" t="s">
         <v>253</v>
-      </c>
-      <c r="I187" s="13" t="s">
-        <v>259</v>
       </c>
       <c r="J187" s="18">
         <v>0</v>
@@ -18397,7 +18387,7 @@
     </row>
     <row r="188" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A188" s="19" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="B188" s="18">
         <v>0</v>
@@ -18406,22 +18396,22 @@
         <v>0</v>
       </c>
       <c r="D188" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E188" s="13">
         <v>0</v>
       </c>
       <c r="F188" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G188" s="18">
         <v>1</v>
       </c>
       <c r="H188" s="13" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="I188" s="13" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="J188" s="18">
         <v>0</v>
@@ -18434,7 +18424,7 @@
     </row>
     <row r="189" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A189" s="19" t="s">
-        <v>167</v>
+        <v>190</v>
       </c>
       <c r="B189" s="18">
         <v>0</v>
@@ -18443,19 +18433,19 @@
         <v>0</v>
       </c>
       <c r="D189" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E189" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F189" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G189" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H189" s="13" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="I189" s="13" t="s">
         <v>252</v>
@@ -18471,7 +18461,7 @@
     </row>
     <row r="190" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A190" s="19" t="s">
-        <v>168</v>
+        <v>192</v>
       </c>
       <c r="B190" s="18">
         <v>0</v>
@@ -18492,7 +18482,7 @@
         <v>1</v>
       </c>
       <c r="H190" s="13" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="I190" s="13" t="s">
         <v>252</v>
@@ -18508,13 +18498,13 @@
     </row>
     <row r="191" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A191" s="19" t="s">
-        <v>171</v>
+        <v>207</v>
       </c>
       <c r="B191" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C191" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D191" s="13">
         <v>0</v>
@@ -18529,10 +18519,10 @@
         <v>1</v>
       </c>
       <c r="H191" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="I191" s="13" t="s">
         <v>253</v>
-      </c>
-      <c r="I191" s="13" t="s">
-        <v>256</v>
       </c>
       <c r="J191" s="18">
         <v>0</v>
@@ -18545,13 +18535,13 @@
     </row>
     <row r="192" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A192" s="19" t="s">
-        <v>172</v>
+        <v>218</v>
       </c>
       <c r="B192" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C192" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D192" s="13">
         <v>0</v>
@@ -18566,7 +18556,7 @@
         <v>1</v>
       </c>
       <c r="H192" s="13" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="I192" s="13" t="s">
         <v>256</v>
@@ -18582,10 +18572,10 @@
     </row>
     <row r="193" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A193" s="19" t="s">
-        <v>173</v>
+        <v>226</v>
       </c>
       <c r="B193" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C193" s="18">
         <v>0</v>
@@ -18606,7 +18596,7 @@
         <v>256</v>
       </c>
       <c r="I193" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J193" s="18">
         <v>0</v>
@@ -18619,44 +18609,50 @@
     </row>
     <row r="194" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A194" s="19" t="s">
-        <v>178</v>
+        <v>18</v>
       </c>
       <c r="B194" s="18">
         <v>0</v>
       </c>
-      <c r="C194" s="18" t="s">
-        <v>251</v>
+      <c r="C194" s="18">
+        <v>1</v>
       </c>
       <c r="D194" s="13">
         <v>0</v>
       </c>
-      <c r="E194" s="13" t="s">
-        <v>251</v>
+      <c r="E194" s="13">
+        <v>1</v>
       </c>
       <c r="F194" s="18">
-        <v>1</v>
-      </c>
-      <c r="G194" s="18" t="s">
-        <v>251</v>
+        <v>0</v>
+      </c>
+      <c r="G194" s="18">
+        <v>0</v>
       </c>
       <c r="H194" s="13" t="s">
         <v>256</v>
       </c>
       <c r="I194" s="13" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="J194" s="18">
-        <v>0</v>
-      </c>
-      <c r="K194" s="18"/>
-      <c r="L194" s="18"/>
-      <c r="M194" s="18"/>
+        <v>1</v>
+      </c>
+      <c r="K194" s="18">
+        <v>0</v>
+      </c>
+      <c r="L194" s="18">
+        <v>0</v>
+      </c>
+      <c r="M194" s="18">
+        <v>0</v>
+      </c>
       <c r="N194" s="13"/>
       <c r="O194" s="20"/>
     </row>
     <row r="195" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A195" s="19" t="s">
-        <v>179</v>
+        <v>21</v>
       </c>
       <c r="B195" s="18">
         <v>0</v>
@@ -18668,10 +18664,10 @@
         <v>0</v>
       </c>
       <c r="E195" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F195" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G195" s="18">
         <v>0</v>
@@ -18680,20 +18676,26 @@
         <v>256</v>
       </c>
       <c r="I195" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J195" s="18">
-        <v>0</v>
-      </c>
-      <c r="K195" s="18"/>
-      <c r="L195" s="18"/>
-      <c r="M195" s="18"/>
+        <v>1</v>
+      </c>
+      <c r="K195" s="18">
+        <v>1</v>
+      </c>
+      <c r="L195" s="18">
+        <v>1</v>
+      </c>
+      <c r="M195" s="18">
+        <v>0</v>
+      </c>
       <c r="N195" s="13"/>
       <c r="O195" s="20"/>
     </row>
     <row r="196" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A196" s="19" t="s">
-        <v>180</v>
+        <v>35</v>
       </c>
       <c r="B196" s="18">
         <v>0</v>
@@ -18708,10 +18710,10 @@
         <v>0</v>
       </c>
       <c r="F196" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G196" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H196" s="13" t="s">
         <v>256</v>
@@ -18720,29 +18722,35 @@
         <v>256</v>
       </c>
       <c r="J196" s="18">
-        <v>0</v>
-      </c>
-      <c r="K196" s="18"/>
-      <c r="L196" s="18"/>
-      <c r="M196" s="18"/>
+        <v>1</v>
+      </c>
+      <c r="K196" s="18">
+        <v>0</v>
+      </c>
+      <c r="L196" s="18">
+        <v>0</v>
+      </c>
+      <c r="M196" s="18">
+        <v>0</v>
+      </c>
       <c r="N196" s="13"/>
       <c r="O196" s="20"/>
     </row>
     <row r="197" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A197" s="19" t="s">
-        <v>181</v>
+        <v>36</v>
       </c>
       <c r="B197" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C197" s="18">
         <v>0</v>
       </c>
       <c r="D197" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E197" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F197" s="18">
         <v>0</v>
@@ -18751,26 +18759,32 @@
         <v>0</v>
       </c>
       <c r="H197" s="13" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="I197" s="13" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="J197" s="18">
-        <v>0</v>
-      </c>
-      <c r="K197" s="18"/>
-      <c r="L197" s="18"/>
-      <c r="M197" s="18"/>
+        <v>1</v>
+      </c>
+      <c r="K197" s="18">
+        <v>1</v>
+      </c>
+      <c r="L197" s="18">
+        <v>0</v>
+      </c>
+      <c r="M197" s="18">
+        <v>0</v>
+      </c>
       <c r="N197" s="13"/>
       <c r="O197" s="20"/>
     </row>
     <row r="198" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A198" s="19" t="s">
-        <v>182</v>
+        <v>49</v>
       </c>
       <c r="B198" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C198" s="18">
         <v>0</v>
@@ -18782,29 +18796,35 @@
         <v>0</v>
       </c>
       <c r="F198" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G198" s="18">
         <v>0</v>
       </c>
       <c r="H198" s="13" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="I198" s="13" t="s">
         <v>252</v>
       </c>
       <c r="J198" s="18">
-        <v>0</v>
-      </c>
-      <c r="K198" s="18"/>
-      <c r="L198" s="18"/>
-      <c r="M198" s="18"/>
+        <v>1</v>
+      </c>
+      <c r="K198" s="18">
+        <v>1</v>
+      </c>
+      <c r="L198" s="18">
+        <v>0</v>
+      </c>
+      <c r="M198" s="18">
+        <v>0</v>
+      </c>
       <c r="N198" s="13"/>
       <c r="O198" s="20"/>
     </row>
     <row r="199" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A199" s="19" t="s">
-        <v>186</v>
+        <v>58</v>
       </c>
       <c r="B199" s="18">
         <v>0</v>
@@ -18816,44 +18836,50 @@
         <v>0</v>
       </c>
       <c r="E199" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F199" s="18">
         <v>1</v>
       </c>
       <c r="G199" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H199" s="13" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="I199" s="13" t="s">
         <v>252</v>
       </c>
       <c r="J199" s="18">
-        <v>0</v>
-      </c>
-      <c r="K199" s="18"/>
-      <c r="L199" s="18"/>
-      <c r="M199" s="18"/>
+        <v>1</v>
+      </c>
+      <c r="K199" s="18">
+        <v>0</v>
+      </c>
+      <c r="L199" s="18">
+        <v>0</v>
+      </c>
+      <c r="M199" s="18">
+        <v>0</v>
+      </c>
       <c r="N199" s="13"/>
       <c r="O199" s="20"/>
     </row>
     <row r="200" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A200" s="19" t="s">
-        <v>187</v>
+        <v>62</v>
       </c>
       <c r="B200" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C200" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D200" s="13">
         <v>0</v>
       </c>
       <c r="E200" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F200" s="18">
         <v>1</v>
@@ -18862,23 +18888,29 @@
         <v>0</v>
       </c>
       <c r="H200" s="13" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="I200" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J200" s="18">
-        <v>0</v>
-      </c>
-      <c r="K200" s="18"/>
-      <c r="L200" s="18"/>
-      <c r="M200" s="18"/>
+        <v>1</v>
+      </c>
+      <c r="K200" s="18">
+        <v>0</v>
+      </c>
+      <c r="L200" s="18">
+        <v>0</v>
+      </c>
+      <c r="M200" s="18">
+        <v>0</v>
+      </c>
       <c r="N200" s="13"/>
       <c r="O200" s="20"/>
     </row>
     <row r="201" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A201" s="19" t="s">
-        <v>188</v>
+        <v>73</v>
       </c>
       <c r="B201" s="18">
         <v>0</v>
@@ -18899,26 +18931,32 @@
         <v>0</v>
       </c>
       <c r="H201" s="13" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="I201" s="13" t="s">
         <v>252</v>
       </c>
       <c r="J201" s="18">
-        <v>0</v>
-      </c>
-      <c r="K201" s="18"/>
-      <c r="L201" s="18"/>
-      <c r="M201" s="18"/>
+        <v>1</v>
+      </c>
+      <c r="K201" s="18">
+        <v>1</v>
+      </c>
+      <c r="L201" s="18">
+        <v>0</v>
+      </c>
+      <c r="M201" s="18">
+        <v>1</v>
+      </c>
       <c r="N201" s="13"/>
       <c r="O201" s="20"/>
     </row>
     <row r="202" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A202" s="19" t="s">
-        <v>190</v>
+        <v>104</v>
       </c>
       <c r="B202" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C202" s="18">
         <v>0</v>
@@ -18930,10 +18968,10 @@
         <v>0</v>
       </c>
       <c r="F202" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G202" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H202" s="13" t="s">
         <v>256</v>
@@ -18942,20 +18980,26 @@
         <v>252</v>
       </c>
       <c r="J202" s="18">
-        <v>0</v>
-      </c>
-      <c r="K202" s="18"/>
-      <c r="L202" s="18"/>
-      <c r="M202" s="18"/>
+        <v>1</v>
+      </c>
+      <c r="K202" s="18">
+        <v>0</v>
+      </c>
+      <c r="L202" s="18">
+        <v>0</v>
+      </c>
+      <c r="M202" s="18">
+        <v>0</v>
+      </c>
       <c r="N202" s="13"/>
       <c r="O202" s="20"/>
     </row>
     <row r="203" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A203" s="19" t="s">
-        <v>191</v>
+        <v>116</v>
       </c>
       <c r="B203" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C203" s="18">
         <v>0</v>
@@ -18973,23 +19017,29 @@
         <v>0</v>
       </c>
       <c r="H203" s="13" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="I203" s="13" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="J203" s="18">
-        <v>0</v>
-      </c>
-      <c r="K203" s="18"/>
-      <c r="L203" s="18"/>
-      <c r="M203" s="18"/>
+        <v>1</v>
+      </c>
+      <c r="K203" s="18">
+        <v>1</v>
+      </c>
+      <c r="L203" s="18">
+        <v>0</v>
+      </c>
+      <c r="M203" s="18">
+        <v>0</v>
+      </c>
       <c r="N203" s="13"/>
       <c r="O203" s="20"/>
     </row>
     <row r="204" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A204" s="19" t="s">
-        <v>192</v>
+        <v>132</v>
       </c>
       <c r="B204" s="18">
         <v>0</v>
@@ -19001,13 +19051,13 @@
         <v>0</v>
       </c>
       <c r="E204" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F204" s="18">
         <v>1</v>
       </c>
       <c r="G204" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H204" s="13" t="s">
         <v>256</v>
@@ -19016,23 +19066,29 @@
         <v>252</v>
       </c>
       <c r="J204" s="18">
-        <v>0</v>
-      </c>
-      <c r="K204" s="18"/>
-      <c r="L204" s="18"/>
-      <c r="M204" s="18"/>
+        <v>1</v>
+      </c>
+      <c r="K204" s="18">
+        <v>1</v>
+      </c>
+      <c r="L204" s="18">
+        <v>0</v>
+      </c>
+      <c r="M204" s="18">
+        <v>0</v>
+      </c>
       <c r="N204" s="13"/>
       <c r="O204" s="20"/>
     </row>
     <row r="205" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A205" s="19" t="s">
-        <v>193</v>
+        <v>138</v>
       </c>
       <c r="B205" s="18">
         <v>0</v>
       </c>
       <c r="C205" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D205" s="13">
         <v>0</v>
@@ -19041,29 +19097,35 @@
         <v>1</v>
       </c>
       <c r="F205" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G205" s="18">
         <v>0</v>
       </c>
       <c r="H205" s="13" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="I205" s="13" t="s">
         <v>252</v>
       </c>
       <c r="J205" s="18">
-        <v>0</v>
-      </c>
-      <c r="K205" s="18"/>
-      <c r="L205" s="18"/>
-      <c r="M205" s="18"/>
+        <v>1</v>
+      </c>
+      <c r="K205" s="18">
+        <v>1</v>
+      </c>
+      <c r="L205" s="18">
+        <v>0</v>
+      </c>
+      <c r="M205" s="18">
+        <v>0</v>
+      </c>
       <c r="N205" s="13"/>
       <c r="O205" s="20"/>
     </row>
     <row r="206" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A206" s="19" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="B206" s="18">
         <v>0</v>
@@ -19072,35 +19134,41 @@
         <v>0</v>
       </c>
       <c r="D206" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E206" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F206" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G206" s="18">
         <v>0</v>
       </c>
       <c r="H206" s="13" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="I206" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J206" s="18">
-        <v>0</v>
-      </c>
-      <c r="K206" s="18"/>
-      <c r="L206" s="18"/>
-      <c r="M206" s="18"/>
+        <v>1</v>
+      </c>
+      <c r="K206" s="18">
+        <v>1</v>
+      </c>
+      <c r="L206" s="18">
+        <v>0</v>
+      </c>
+      <c r="M206" s="18">
+        <v>0</v>
+      </c>
       <c r="N206" s="13"/>
       <c r="O206" s="20"/>
     </row>
     <row r="207" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A207" s="19" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="B207" s="18">
         <v>0</v>
@@ -19115,29 +19183,35 @@
         <v>0</v>
       </c>
       <c r="F207" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G207" s="18">
         <v>0</v>
       </c>
       <c r="H207" s="13" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="I207" s="13" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="J207" s="18">
-        <v>0</v>
-      </c>
-      <c r="K207" s="18"/>
-      <c r="L207" s="18"/>
-      <c r="M207" s="18"/>
+        <v>1</v>
+      </c>
+      <c r="K207" s="18">
+        <v>0</v>
+      </c>
+      <c r="L207" s="18">
+        <v>0</v>
+      </c>
+      <c r="M207" s="18">
+        <v>0</v>
+      </c>
       <c r="N207" s="13"/>
       <c r="O207" s="20"/>
     </row>
     <row r="208" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A208" s="19" t="s">
-        <v>197</v>
+        <v>223</v>
       </c>
       <c r="B208" s="18">
         <v>0</v>
@@ -19146,72 +19220,84 @@
         <v>0</v>
       </c>
       <c r="D208" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E208" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F208" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G208" s="18">
         <v>0</v>
       </c>
       <c r="H208" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="I208" s="13" t="s">
         <v>253</v>
       </c>
-      <c r="I208" s="13" t="s">
-        <v>252</v>
-      </c>
       <c r="J208" s="18">
-        <v>0</v>
-      </c>
-      <c r="K208" s="18"/>
-      <c r="L208" s="18"/>
-      <c r="M208" s="18"/>
+        <v>1</v>
+      </c>
+      <c r="K208" s="18">
+        <v>1</v>
+      </c>
+      <c r="L208" s="18">
+        <v>0</v>
+      </c>
+      <c r="M208" s="18">
+        <v>0</v>
+      </c>
       <c r="N208" s="13"/>
       <c r="O208" s="20"/>
     </row>
     <row r="209" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A209" s="19" t="s">
-        <v>198</v>
+        <v>231</v>
       </c>
       <c r="B209" s="18">
         <v>0</v>
       </c>
-      <c r="C209" s="18" t="s">
-        <v>251</v>
+      <c r="C209" s="18">
+        <v>0</v>
       </c>
       <c r="D209" s="13">
-        <v>0</v>
-      </c>
-      <c r="E209" s="13" t="s">
-        <v>251</v>
+        <v>1</v>
+      </c>
+      <c r="E209" s="13">
+        <v>1</v>
       </c>
       <c r="F209" s="18">
-        <v>1</v>
-      </c>
-      <c r="G209" s="18" t="s">
-        <v>251</v>
+        <v>0</v>
+      </c>
+      <c r="G209" s="18">
+        <v>0</v>
       </c>
       <c r="H209" s="13" t="s">
         <v>256</v>
       </c>
       <c r="I209" s="13" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="J209" s="18">
-        <v>0</v>
-      </c>
-      <c r="K209" s="18"/>
-      <c r="L209" s="18"/>
-      <c r="M209" s="18"/>
+        <v>1</v>
+      </c>
+      <c r="K209" s="18">
+        <v>1</v>
+      </c>
+      <c r="L209" s="18">
+        <v>0</v>
+      </c>
+      <c r="M209" s="18">
+        <v>0</v>
+      </c>
       <c r="N209" s="13"/>
       <c r="O209" s="20"/>
     </row>
     <row r="210" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A210" s="19" t="s">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="B210" s="18">
         <v>0</v>
@@ -19220,13 +19306,13 @@
         <v>0</v>
       </c>
       <c r="D210" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E210" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F210" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G210" s="18">
         <v>0</v>
@@ -19238,17 +19324,23 @@
         <v>252</v>
       </c>
       <c r="J210" s="18">
-        <v>0</v>
-      </c>
-      <c r="K210" s="18"/>
-      <c r="L210" s="18"/>
-      <c r="M210" s="18"/>
+        <v>1</v>
+      </c>
+      <c r="K210" s="18">
+        <v>1</v>
+      </c>
+      <c r="L210" s="18">
+        <v>0</v>
+      </c>
+      <c r="M210" s="18">
+        <v>0</v>
+      </c>
       <c r="N210" s="13"/>
       <c r="O210" s="20"/>
     </row>
     <row r="211" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A211" s="19" t="s">
-        <v>203</v>
+        <v>10</v>
       </c>
       <c r="B211" s="18">
         <v>0</v>
@@ -19269,10 +19361,10 @@
         <v>0</v>
       </c>
       <c r="H211" s="13" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="I211" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J211" s="18">
         <v>0</v>
@@ -19285,31 +19377,31 @@
     </row>
     <row r="212" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A212" s="19" t="s">
-        <v>204</v>
+        <v>12</v>
       </c>
       <c r="B212" s="18">
         <v>0</v>
       </c>
-      <c r="C212" s="18" t="s">
-        <v>251</v>
+      <c r="C212" s="18">
+        <v>0</v>
       </c>
       <c r="D212" s="13">
         <v>0</v>
       </c>
-      <c r="E212" s="13" t="s">
-        <v>251</v>
+      <c r="E212" s="13">
+        <v>0</v>
       </c>
       <c r="F212" s="18">
-        <v>1</v>
-      </c>
-      <c r="G212" s="18" t="s">
-        <v>251</v>
+        <v>0</v>
+      </c>
+      <c r="G212" s="18">
+        <v>0</v>
       </c>
       <c r="H212" s="13" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="I212" s="13" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="J212" s="18">
         <v>0</v>
@@ -19322,7 +19414,7 @@
     </row>
     <row r="213" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A213" s="19" t="s">
-        <v>207</v>
+        <v>15</v>
       </c>
       <c r="B213" s="18">
         <v>0</v>
@@ -19337,10 +19429,10 @@
         <v>0</v>
       </c>
       <c r="F213" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G213" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H213" s="13" t="s">
         <v>256</v>
@@ -19359,10 +19451,10 @@
     </row>
     <row r="214" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A214" s="19" t="s">
-        <v>208</v>
+        <v>20</v>
       </c>
       <c r="B214" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C214" s="18">
         <v>0</v>
@@ -19374,16 +19466,16 @@
         <v>0</v>
       </c>
       <c r="F214" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G214" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H214" s="13" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="I214" s="13" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="J214" s="18">
         <v>0</v>
@@ -19396,10 +19488,10 @@
     </row>
     <row r="215" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A215" s="19" t="s">
-        <v>209</v>
+        <v>33</v>
       </c>
       <c r="B215" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C215" s="18">
         <v>0</v>
@@ -19408,7 +19500,7 @@
         <v>0</v>
       </c>
       <c r="E215" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F215" s="18">
         <v>1</v>
@@ -19417,10 +19509,10 @@
         <v>0</v>
       </c>
       <c r="H215" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="I215" s="13" t="s">
         <v>253</v>
-      </c>
-      <c r="I215" s="13" t="s">
-        <v>252</v>
       </c>
       <c r="J215" s="18">
         <v>0</v>
@@ -19433,31 +19525,31 @@
     </row>
     <row r="216" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A216" s="19" t="s">
-        <v>210</v>
+        <v>34</v>
       </c>
       <c r="B216" s="18">
-        <v>0</v>
-      </c>
-      <c r="C216" s="18" t="s">
-        <v>251</v>
+        <v>1</v>
+      </c>
+      <c r="C216" s="18">
+        <v>1</v>
       </c>
       <c r="D216" s="13">
         <v>0</v>
       </c>
-      <c r="E216" s="13" t="s">
-        <v>251</v>
+      <c r="E216" s="13">
+        <v>1</v>
       </c>
       <c r="F216" s="18">
-        <v>0</v>
-      </c>
-      <c r="G216" s="18" t="s">
-        <v>251</v>
+        <v>1</v>
+      </c>
+      <c r="G216" s="18">
+        <v>0</v>
       </c>
       <c r="H216" s="13" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="I216" s="13" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="J216" s="18">
         <v>0</v>
@@ -19470,10 +19562,10 @@
     </row>
     <row r="217" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A217" s="19" t="s">
-        <v>212</v>
+        <v>38</v>
       </c>
       <c r="B217" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C217" s="18">
         <v>0</v>
@@ -19491,10 +19583,10 @@
         <v>0</v>
       </c>
       <c r="H217" s="13" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="I217" s="13" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="J217" s="18">
         <v>0</v>
@@ -19507,28 +19599,28 @@
     </row>
     <row r="218" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A218" s="19" t="s">
-        <v>213</v>
+        <v>39</v>
       </c>
       <c r="B218" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C218" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D218" s="13">
         <v>0</v>
       </c>
       <c r="E218" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F218" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G218" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H218" s="13" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="I218" s="13" t="s">
         <v>252</v>
@@ -19544,10 +19636,10 @@
     </row>
     <row r="219" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A219" s="19" t="s">
-        <v>214</v>
+        <v>45</v>
       </c>
       <c r="B219" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C219" s="18">
         <v>0</v>
@@ -19565,10 +19657,10 @@
         <v>0</v>
       </c>
       <c r="H219" s="13" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="I219" s="13" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="J219" s="18">
         <v>0</v>
@@ -19581,31 +19673,31 @@
     </row>
     <row r="220" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A220" s="19" t="s">
-        <v>215</v>
+        <v>53</v>
       </c>
       <c r="B220" s="18">
-        <v>0</v>
-      </c>
-      <c r="C220" s="18" t="s">
-        <v>251</v>
+        <v>1</v>
+      </c>
+      <c r="C220" s="18">
+        <v>0</v>
       </c>
       <c r="D220" s="13">
         <v>0</v>
       </c>
-      <c r="E220" s="13" t="s">
-        <v>251</v>
+      <c r="E220" s="13">
+        <v>0</v>
       </c>
       <c r="F220" s="18">
         <v>1</v>
       </c>
-      <c r="G220" s="18" t="s">
-        <v>251</v>
+      <c r="G220" s="18">
+        <v>0</v>
       </c>
       <c r="H220" s="13" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="I220" s="13" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="J220" s="18">
         <v>0</v>
@@ -19618,10 +19710,10 @@
     </row>
     <row r="221" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A221" s="19" t="s">
-        <v>218</v>
+        <v>57</v>
       </c>
       <c r="B221" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C221" s="18">
         <v>0</v>
@@ -19636,13 +19728,13 @@
         <v>1</v>
       </c>
       <c r="G221" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H221" s="13" t="s">
         <v>256</v>
       </c>
       <c r="I221" s="13" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="J221" s="18">
         <v>0</v>
@@ -19655,7 +19747,7 @@
     </row>
     <row r="222" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A222" s="19" t="s">
-        <v>220</v>
+        <v>65</v>
       </c>
       <c r="B222" s="18">
         <v>0</v>
@@ -19670,7 +19762,7 @@
         <v>0</v>
       </c>
       <c r="F222" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G222" s="18">
         <v>0</v>
@@ -19679,7 +19771,7 @@
         <v>256</v>
       </c>
       <c r="I222" s="13" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="J222" s="18">
         <v>0</v>
@@ -19692,31 +19784,31 @@
     </row>
     <row r="223" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A223" s="19" t="s">
-        <v>221</v>
+        <v>77</v>
       </c>
       <c r="B223" s="18">
         <v>0</v>
       </c>
-      <c r="C223" s="18" t="s">
-        <v>251</v>
+      <c r="C223" s="18">
+        <v>0</v>
       </c>
       <c r="D223" s="13">
         <v>0</v>
       </c>
-      <c r="E223" s="13" t="s">
-        <v>251</v>
+      <c r="E223" s="13">
+        <v>0</v>
       </c>
       <c r="F223" s="18">
-        <v>1</v>
-      </c>
-      <c r="G223" s="18" t="s">
-        <v>251</v>
+        <v>0</v>
+      </c>
+      <c r="G223" s="18">
+        <v>0</v>
       </c>
       <c r="H223" s="13" t="s">
         <v>256</v>
       </c>
       <c r="I223" s="13" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="J223" s="18">
         <v>0</v>
@@ -19729,7 +19821,7 @@
     </row>
     <row r="224" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A224" s="19" t="s">
-        <v>224</v>
+        <v>86</v>
       </c>
       <c r="B224" s="18">
         <v>0</v>
@@ -19747,10 +19839,10 @@
         <v>1</v>
       </c>
       <c r="G224" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H224" s="13" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="I224" s="13" t="s">
         <v>252</v>
@@ -19766,7 +19858,7 @@
     </row>
     <row r="225" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A225" s="19" t="s">
-        <v>226</v>
+        <v>99</v>
       </c>
       <c r="B225" s="18">
         <v>0</v>
@@ -19778,13 +19870,13 @@
         <v>0</v>
       </c>
       <c r="E225" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F225" s="18">
         <v>1</v>
       </c>
       <c r="G225" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H225" s="13" t="s">
         <v>256</v>
@@ -19803,7 +19895,7 @@
     </row>
     <row r="226" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A226" s="19" t="s">
-        <v>227</v>
+        <v>102</v>
       </c>
       <c r="B226" s="18">
         <v>0</v>
@@ -19812,19 +19904,19 @@
         <v>0</v>
       </c>
       <c r="D226" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E226" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F226" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G226" s="18">
         <v>0</v>
       </c>
       <c r="H226" s="13" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="I226" s="13" t="s">
         <v>252</v>
@@ -19840,10 +19932,10 @@
     </row>
     <row r="227" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A227" s="19" t="s">
-        <v>228</v>
+        <v>103</v>
       </c>
       <c r="B227" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C227" s="18">
         <v>0</v>
@@ -19855,7 +19947,7 @@
         <v>0</v>
       </c>
       <c r="F227" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G227" s="18">
         <v>0</v>
@@ -19864,7 +19956,7 @@
         <v>256</v>
       </c>
       <c r="I227" s="13" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="J227" s="18">
         <v>0</v>
@@ -19877,10 +19969,10 @@
     </row>
     <row r="228" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A228" s="19" t="s">
-        <v>229</v>
+        <v>117</v>
       </c>
       <c r="B228" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C228" s="18">
         <v>0</v>
@@ -19892,16 +19984,16 @@
         <v>0</v>
       </c>
       <c r="F228" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G228" s="18">
         <v>0</v>
       </c>
       <c r="H228" s="13" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="I228" s="13" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="J228" s="18">
         <v>0</v>
@@ -19914,7 +20006,7 @@
     </row>
     <row r="229" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A229" s="19" t="s">
-        <v>230</v>
+        <v>123</v>
       </c>
       <c r="B229" s="18">
         <v>0</v>
@@ -19929,16 +20021,16 @@
         <v>0</v>
       </c>
       <c r="F229" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G229" s="18">
         <v>0</v>
       </c>
       <c r="H229" s="13" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="I229" s="13" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="J229" s="18">
         <v>0</v>
@@ -19951,10 +20043,10 @@
     </row>
     <row r="230" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A230" s="19" t="s">
-        <v>232</v>
+        <v>129</v>
       </c>
       <c r="B230" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C230" s="18">
         <v>0</v>
@@ -19963,7 +20055,7 @@
         <v>0</v>
       </c>
       <c r="E230" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F230" s="18">
         <v>1</v>
@@ -19972,7 +20064,7 @@
         <v>0</v>
       </c>
       <c r="H230" s="13" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="I230" s="13" t="s">
         <v>252</v>
@@ -19988,7 +20080,7 @@
     </row>
     <row r="231" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A231" s="19" t="s">
-        <v>233</v>
+        <v>130</v>
       </c>
       <c r="B231" s="18">
         <v>0</v>
@@ -20003,13 +20095,13 @@
         <v>1</v>
       </c>
       <c r="F231" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G231" s="18">
         <v>0</v>
       </c>
       <c r="H231" s="13" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="I231" s="13" t="s">
         <v>252</v>
@@ -20025,28 +20117,28 @@
     </row>
     <row r="232" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A232" s="19" t="s">
-        <v>236</v>
+        <v>131</v>
       </c>
       <c r="B232" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C232" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D232" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E232" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F232" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G232" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H232" s="13" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="I232" s="13" t="s">
         <v>256</v>
@@ -20062,7 +20154,7 @@
     </row>
     <row r="233" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A233" s="19" t="s">
-        <v>237</v>
+        <v>146</v>
       </c>
       <c r="B233" s="18">
         <v>0</v>
@@ -20071,22 +20163,22 @@
         <v>0</v>
       </c>
       <c r="D233" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E233" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F233" s="18">
         <v>0</v>
       </c>
       <c r="G233" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H233" s="13" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="I233" s="13" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="J233" s="18">
         <v>0</v>
@@ -20099,7 +20191,7 @@
     </row>
     <row r="234" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A234" s="19" t="s">
-        <v>238</v>
+        <v>155</v>
       </c>
       <c r="B234" s="18">
         <v>0</v>
@@ -20114,16 +20206,16 @@
         <v>0</v>
       </c>
       <c r="F234" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G234" s="18">
         <v>0</v>
       </c>
       <c r="H234" s="13" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="I234" s="13" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="J234" s="18">
         <v>0</v>
@@ -20136,7 +20228,7 @@
     </row>
     <row r="235" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A235" s="19" t="s">
-        <v>239</v>
+        <v>179</v>
       </c>
       <c r="B235" s="18">
         <v>0</v>
@@ -20151,16 +20243,16 @@
         <v>0</v>
       </c>
       <c r="F235" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G235" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H235" s="13" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="I235" s="13" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="J235" s="18">
         <v>0</v>
@@ -20173,7 +20265,7 @@
     </row>
     <row r="236" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A236" s="19" t="s">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="B236" s="18">
         <v>0</v>
@@ -20191,13 +20283,13 @@
         <v>1</v>
       </c>
       <c r="G236" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H236" s="13" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="I236" s="13" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="J236" s="18">
         <v>0</v>
@@ -20210,7 +20302,7 @@
     </row>
     <row r="237" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A237" s="19" t="s">
-        <v>241</v>
+        <v>220</v>
       </c>
       <c r="B237" s="18">
         <v>0</v>
@@ -20219,7 +20311,7 @@
         <v>0</v>
       </c>
       <c r="D237" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E237" s="13">
         <v>0</v>
@@ -20228,10 +20320,10 @@
         <v>0</v>
       </c>
       <c r="G237" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H237" s="13" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="I237" s="13" t="s">
         <v>256</v>
@@ -20247,31 +20339,31 @@
     </row>
     <row r="238" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A238" s="28" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="B238" s="29">
-        <v>0</v>
-      </c>
-      <c r="C238" s="29" t="s">
-        <v>251</v>
+        <v>1</v>
+      </c>
+      <c r="C238" s="29">
+        <v>0</v>
       </c>
       <c r="D238" s="30">
         <v>0</v>
       </c>
-      <c r="E238" s="30" t="s">
-        <v>251</v>
+      <c r="E238" s="30">
+        <v>0</v>
       </c>
       <c r="F238" s="29">
-        <v>1</v>
-      </c>
-      <c r="G238" s="29" t="s">
-        <v>251</v>
+        <v>0</v>
+      </c>
+      <c r="G238" s="29">
+        <v>0</v>
       </c>
       <c r="H238" s="13" t="s">
         <v>256</v>
       </c>
       <c r="I238" s="30" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="J238" s="29">
         <v>0</v>
@@ -20328,15 +20420,15 @@
       </c>
       <c r="K241" s="13">
         <f>COUNTIF(K3:K238,"0")</f>
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="L241" s="13">
         <f>COUNTIF(L3:L238,"0")</f>
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M241" s="13">
         <f>COUNTIF(M3:M238,"0")</f>
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="242" spans="1:13" x14ac:dyDescent="0.25">
@@ -20375,15 +20467,15 @@
       </c>
       <c r="K242" s="13">
         <f>COUNTIF(K3:K238,"1")</f>
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="L242" s="13">
         <f>COUNTIF(L3:L238,"1")</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M242" s="13">
         <f>COUNTIF(M3:M238,"1")</f>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="243" spans="1:13" x14ac:dyDescent="0.25">

--- a/Thesis/Fragestellungen.xlsx
+++ b/Thesis/Fragestellungen.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4500" yWindow="0" windowWidth="19200" windowHeight="11580" activeTab="1"/>
+    <workbookView xWindow="6000" yWindow="0" windowWidth="19200" windowHeight="11580" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Fragestellungen" sheetId="1" r:id="rId1"/>
@@ -1161,29 +1161,23 @@
   </cellStyles>
   <dxfs count="26">
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -1203,23 +1197,12 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -1546,6 +1529,23 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -1726,7 +1726,9 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -1783,6 +1785,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="l"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1989,7 +1992,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2008,7 +2013,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2027,7 +2034,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2069,6 +2078,7 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
@@ -2110,7 +2120,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2141,7 +2153,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -2293,6 +2307,7 @@
         <c:idx val="4"/>
         <c:delete val="1"/>
       </c:legendEntry>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2478,7 +2493,9 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -2538,6 +2555,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="l"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2708,7 +2726,9 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -2765,6 +2785,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="l"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2950,7 +2971,9 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -3010,6 +3033,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="l"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3180,7 +3204,9 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -3237,6 +3263,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="l"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3422,7 +3449,9 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -3482,6 +3511,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="l"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3677,7 +3707,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -3696,7 +3728,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -3715,7 +3749,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -3734,7 +3770,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -3753,7 +3791,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -3772,7 +3812,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -3905,6 +3947,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="l"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4117,7 +4160,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -4136,7 +4181,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -4155,7 +4202,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -4174,7 +4223,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -4193,7 +4244,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -4212,7 +4265,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -4231,7 +4286,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -4380,6 +4437,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="l"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4546,7 +4604,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -4565,7 +4625,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -4603,6 +4665,7 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
@@ -4660,7 +4723,9 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -4737,6 +4802,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="l"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10731,27 +10797,27 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabelle2" displayName="Tabelle2" ref="A2:O238" totalsRowShown="0" dataDxfId="19" headerRowBorderDxfId="20" tableBorderDxfId="18" totalsRowBorderDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabelle2" displayName="Tabelle2" ref="A2:O238" totalsRowShown="0" dataDxfId="17" headerRowBorderDxfId="18" tableBorderDxfId="16" totalsRowBorderDxfId="15">
   <autoFilter ref="A2:O238"/>
   <sortState ref="A3:O238">
     <sortCondition descending="1" ref="H2:H238"/>
   </sortState>
   <tableColumns count="15">
-    <tableColumn id="1" name="Spalte1" dataDxfId="16"/>
-    <tableColumn id="2" name="Full" dataDxfId="15"/>
-    <tableColumn id="4" name="Tech" dataDxfId="14"/>
-    <tableColumn id="5" name="Full2" dataDxfId="13"/>
-    <tableColumn id="7" name="Tech4" dataDxfId="12"/>
-    <tableColumn id="8" name="Full5" dataDxfId="11"/>
-    <tableColumn id="10" name="Tech7" dataDxfId="10"/>
-    <tableColumn id="11" name="Full8" dataDxfId="9"/>
-    <tableColumn id="13" name="Tech10" dataDxfId="8"/>
-    <tableColumn id="14" name="Mehr-deutig" dataDxfId="7"/>
-    <tableColumn id="20" name="Je eine Bedeutung" dataDxfId="2"/>
-    <tableColumn id="15" name="Full11" dataDxfId="6"/>
-    <tableColumn id="17" name="Tech13" dataDxfId="5"/>
-    <tableColumn id="18" name="Full14" dataDxfId="4"/>
-    <tableColumn id="19" name="Tech15" dataDxfId="3"/>
+    <tableColumn id="1" name="Spalte1" dataDxfId="14"/>
+    <tableColumn id="2" name="Full" dataDxfId="13"/>
+    <tableColumn id="4" name="Tech" dataDxfId="12"/>
+    <tableColumn id="5" name="Full2" dataDxfId="11"/>
+    <tableColumn id="7" name="Tech4" dataDxfId="10"/>
+    <tableColumn id="8" name="Full5" dataDxfId="9"/>
+    <tableColumn id="10" name="Tech7" dataDxfId="8"/>
+    <tableColumn id="11" name="Full8" dataDxfId="7"/>
+    <tableColumn id="13" name="Tech10" dataDxfId="6"/>
+    <tableColumn id="14" name="Mehr-deutig" dataDxfId="5"/>
+    <tableColumn id="20" name="Je eine Bedeutung" dataDxfId="4"/>
+    <tableColumn id="15" name="Full11" dataDxfId="3"/>
+    <tableColumn id="17" name="Tech13" dataDxfId="2"/>
+    <tableColumn id="18" name="Full14" dataDxfId="1"/>
+    <tableColumn id="19" name="Tech15" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -11147,7 +11213,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O251"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -20670,10 +20736,10 @@
     <mergeCell ref="J1:M1"/>
   </mergeCells>
   <conditionalFormatting sqref="B3:G238">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="2" operator="equal">
       <formula>"-"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="3" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20689,7 +20755,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AF27" sqref="AF27"/>
     </sheetView>
   </sheetViews>
